--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I355"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10766,6 +10766,1224 @@
         <v>10</v>
       </c>
     </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>3</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>7</v>
+      </c>
+      <c r="I356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>3</v>
+      </c>
+      <c r="H357">
+        <v>3</v>
+      </c>
+      <c r="I357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>21</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+      <c r="I358">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>20</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>9</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>7</v>
+      </c>
+      <c r="I360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>3</v>
+      </c>
+      <c r="I361">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>3</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>4</v>
+      </c>
+      <c r="I362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>26</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>3</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>2</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>3</v>
+      </c>
+      <c r="I364">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>2</v>
+      </c>
+      <c r="H365">
+        <v>8</v>
+      </c>
+      <c r="I365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>25</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>8</v>
+      </c>
+      <c r="I366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>16</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>2</v>
+      </c>
+      <c r="I367">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>17</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>4</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>10</v>
+      </c>
+      <c r="I368">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>28</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>4</v>
+      </c>
+      <c r="H369">
+        <v>6</v>
+      </c>
+      <c r="I369">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>3</v>
+      </c>
+      <c r="I370">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>24</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>5</v>
+      </c>
+      <c r="I371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>7</v>
+      </c>
+      <c r="I372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>6</v>
+      </c>
+      <c r="I373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>13</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>2</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>5</v>
+      </c>
+      <c r="I374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>12</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>2</v>
+      </c>
+      <c r="H375">
+        <v>3</v>
+      </c>
+      <c r="I375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="H376">
+        <v>10</v>
+      </c>
+      <c r="I376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>17</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>6</v>
+      </c>
+      <c r="I377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>16</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>5</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>15</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>2</v>
+      </c>
+      <c r="I379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>2</v>
+      </c>
+      <c r="H380">
+        <v>9</v>
+      </c>
+      <c r="I380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>2</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>2</v>
+      </c>
+      <c r="I381">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+      <c r="F382">
+        <v>3</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>7</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383">
+        <v>3</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>24</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384">
+        <v>10</v>
+      </c>
+      <c r="I384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>1</v>
+      </c>
+      <c r="H385">
+        <v>3</v>
+      </c>
+      <c r="I385">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>22</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>3</v>
+      </c>
+      <c r="I386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>21</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>7</v>
+      </c>
+      <c r="I387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>20</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>4</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>4</v>
+      </c>
+      <c r="I388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>19</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>4</v>
+      </c>
+      <c r="H389">
+        <v>7</v>
+      </c>
+      <c r="I389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>26</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>2</v>
+      </c>
+      <c r="G390">
+        <v>3</v>
+      </c>
+      <c r="H390">
+        <v>4</v>
+      </c>
+      <c r="I390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>25</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391">
+        <v>3</v>
+      </c>
+      <c r="G391">
+        <v>2</v>
+      </c>
+      <c r="H391">
+        <v>5</v>
+      </c>
+      <c r="I391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>28</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>2</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>9</v>
+      </c>
+      <c r="I392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>27</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393">
+        <v>2</v>
+      </c>
+      <c r="H393">
+        <v>4</v>
+      </c>
+      <c r="I393">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>14</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>4</v>
+      </c>
+      <c r="I394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>7</v>
+      </c>
+      <c r="I395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>25</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>6</v>
+      </c>
+      <c r="I396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>3</v>
+      </c>
+      <c r="I397">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10773,7 +11991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13805,6 +15023,363 @@
         <v>25</v>
       </c>
     </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11984,6 +11984,528 @@
         <v>6</v>
       </c>
     </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>23</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+      <c r="H398">
+        <v>7</v>
+      </c>
+      <c r="I398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>14</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>1</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+      <c r="H399">
+        <v>6</v>
+      </c>
+      <c r="I399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>19</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>11</v>
+      </c>
+      <c r="I400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>2</v>
+      </c>
+      <c r="H401">
+        <v>4</v>
+      </c>
+      <c r="I401">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>9</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+      <c r="H402">
+        <v>4</v>
+      </c>
+      <c r="I402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>16</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403">
+        <v>2</v>
+      </c>
+      <c r="H403">
+        <v>6</v>
+      </c>
+      <c r="I403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>21</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>2</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>5</v>
+      </c>
+      <c r="I404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>2</v>
+      </c>
+      <c r="H405">
+        <v>2</v>
+      </c>
+      <c r="I405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>15</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>3</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>4</v>
+      </c>
+      <c r="I406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>20</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>3</v>
+      </c>
+      <c r="H407">
+        <v>7</v>
+      </c>
+      <c r="I407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>2</v>
+      </c>
+      <c r="G408">
+        <v>2</v>
+      </c>
+      <c r="H408">
+        <v>2</v>
+      </c>
+      <c r="I408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>2</v>
+      </c>
+      <c r="G409">
+        <v>2</v>
+      </c>
+      <c r="H409">
+        <v>8</v>
+      </c>
+      <c r="I409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>17</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>3</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>2</v>
+      </c>
+      <c r="I410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>26</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411">
+        <v>3</v>
+      </c>
+      <c r="H411">
+        <v>3</v>
+      </c>
+      <c r="I411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>11</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>9</v>
+      </c>
+      <c r="I412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>22</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+      <c r="H413">
+        <v>2</v>
+      </c>
+      <c r="I413">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>27</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>3</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>6</v>
+      </c>
+      <c r="I414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>24</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>3</v>
+      </c>
+      <c r="H415">
+        <v>5</v>
+      </c>
+      <c r="I415">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11991,7 +12513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15380,6 +15902,159 @@
         <v>18</v>
       </c>
     </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>10</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>27</v>
+      </c>
+      <c r="E208" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12506,6 +12506,180 @@
         <v>6</v>
       </c>
     </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>12</v>
+      </c>
+      <c r="I416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>7</v>
+      </c>
+      <c r="I417">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>14</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>5</v>
+      </c>
+      <c r="I418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>5</v>
+      </c>
+      <c r="I419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>15</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>2</v>
+      </c>
+      <c r="H420">
+        <v>12</v>
+      </c>
+      <c r="I420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>25</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>6</v>
+      </c>
+      <c r="I421">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12513,7 +12687,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16055,6 +16229,57 @@
         <v>24</v>
       </c>
     </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>19</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12680,6 +12680,1978 @@
         <v>12</v>
       </c>
     </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>27</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>2</v>
+      </c>
+      <c r="I422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>2</v>
+      </c>
+      <c r="H423">
+        <v>9</v>
+      </c>
+      <c r="I423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>5</v>
+      </c>
+      <c r="I424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>7</v>
+      </c>
+      <c r="I425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>23</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>2</v>
+      </c>
+      <c r="I426">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>11</v>
+      </c>
+      <c r="I427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>9</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>2</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>3</v>
+      </c>
+      <c r="I428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>28</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>2</v>
+      </c>
+      <c r="H429">
+        <v>5</v>
+      </c>
+      <c r="I429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>24</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>8</v>
+      </c>
+      <c r="I430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>19</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>5</v>
+      </c>
+      <c r="I431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="s">
+        <v>20</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>6</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="s">
+        <v>22</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434">
+        <v>2</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>4</v>
+      </c>
+      <c r="I434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="s">
+        <v>16</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>7</v>
+      </c>
+      <c r="I435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="s">
+        <v>25</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>3</v>
+      </c>
+      <c r="H436">
+        <v>8</v>
+      </c>
+      <c r="I436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="s">
+        <v>13</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>3</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>2</v>
+      </c>
+      <c r="I437">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="s">
+        <v>28</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>3</v>
+      </c>
+      <c r="H438">
+        <v>8</v>
+      </c>
+      <c r="I438">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="s">
+        <v>24</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>3</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>9</v>
+      </c>
+      <c r="I439">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>2</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>6</v>
+      </c>
+      <c r="I440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="s">
+        <v>23</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>2</v>
+      </c>
+      <c r="H441">
+        <v>3</v>
+      </c>
+      <c r="I441">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="s">
+        <v>26</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442">
+        <v>2</v>
+      </c>
+      <c r="G442">
+        <v>4</v>
+      </c>
+      <c r="H442">
+        <v>7</v>
+      </c>
+      <c r="I442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="s">
+        <v>20</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>4</v>
+      </c>
+      <c r="G443">
+        <v>2</v>
+      </c>
+      <c r="H443">
+        <v>2</v>
+      </c>
+      <c r="I443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="s">
+        <v>19</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>2</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>5</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="s">
+        <v>27</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>2</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446">
+        <v>2</v>
+      </c>
+      <c r="G446">
+        <v>2</v>
+      </c>
+      <c r="H446">
+        <v>9</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+      <c r="F447">
+        <v>2</v>
+      </c>
+      <c r="G447">
+        <v>2</v>
+      </c>
+      <c r="H447">
+        <v>1</v>
+      </c>
+      <c r="I447">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="s">
+        <v>11</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>6</v>
+      </c>
+      <c r="I448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="s">
+        <v>14</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>3</v>
+      </c>
+      <c r="I449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="s">
+        <v>22</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>4</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450">
+        <v>4</v>
+      </c>
+      <c r="I450">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
+      </c>
+      <c r="G451">
+        <v>4</v>
+      </c>
+      <c r="H451">
+        <v>11</v>
+      </c>
+      <c r="I451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="s">
+        <v>21</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>5</v>
+      </c>
+      <c r="I452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="s">
+        <v>15</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>3</v>
+      </c>
+      <c r="I453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="s">
+        <v>20</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>2</v>
+      </c>
+      <c r="H454">
+        <v>6</v>
+      </c>
+      <c r="I454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="s">
+        <v>28</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>2</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>8</v>
+      </c>
+      <c r="I455">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="s">
+        <v>23</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456">
+        <v>4</v>
+      </c>
+      <c r="G456">
+        <v>4</v>
+      </c>
+      <c r="H456">
+        <v>6</v>
+      </c>
+      <c r="I456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="s">
+        <v>27</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>4</v>
+      </c>
+      <c r="G457">
+        <v>4</v>
+      </c>
+      <c r="H457">
+        <v>4</v>
+      </c>
+      <c r="I457">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="s">
+        <v>9</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>2</v>
+      </c>
+      <c r="H458">
+        <v>2</v>
+      </c>
+      <c r="I458">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>19</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>14</v>
+      </c>
+      <c r="I459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>14</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>3</v>
+      </c>
+      <c r="I460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>2</v>
+      </c>
+      <c r="I461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>7</v>
+      </c>
+      <c r="I462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>24</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>3</v>
+      </c>
+      <c r="I463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>16</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>2</v>
+      </c>
+      <c r="H464">
+        <v>9</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>17</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
+      <c r="F466">
+        <v>5</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>6</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>26</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+      <c r="G467">
+        <v>5</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>13</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468">
+        <v>2</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>7</v>
+      </c>
+      <c r="I468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>5</v>
+      </c>
+      <c r="I469">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>27</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>11</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>11</v>
+      </c>
+      <c r="I471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>6</v>
+      </c>
+      <c r="I472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>15</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+      <c r="I473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>21</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>6</v>
+      </c>
+      <c r="I474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>3</v>
+      </c>
+      <c r="I475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>9</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476">
+        <v>3</v>
+      </c>
+      <c r="I476">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>22</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>8</v>
+      </c>
+      <c r="I477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>16</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478">
+        <v>2</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>4</v>
+      </c>
+      <c r="I478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>26</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <v>2</v>
+      </c>
+      <c r="H479">
+        <v>3</v>
+      </c>
+      <c r="I479">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>3</v>
+      </c>
+      <c r="I480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>27</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>7</v>
+      </c>
+      <c r="I481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>25</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>12</v>
+      </c>
+      <c r="I482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>20</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>2</v>
+      </c>
+      <c r="I483">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>3</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>7</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>3</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>16</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>11</v>
+      </c>
+      <c r="I486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>23</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="G487">
+        <v>2</v>
+      </c>
+      <c r="H487">
+        <v>4</v>
+      </c>
+      <c r="I487">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>2</v>
+      </c>
+      <c r="H488">
+        <v>4</v>
+      </c>
+      <c r="I488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>21</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>4</v>
+      </c>
+      <c r="I489">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12687,7 +14659,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16280,6 +18252,584 @@
         <v>25</v>
       </c>
     </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>17</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>15</v>
+      </c>
+      <c r="D226" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>14</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>27</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>9</v>
+      </c>
+      <c r="D238" t="s">
+        <v>21</v>
+      </c>
+      <c r="E238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>14</v>
+      </c>
+      <c r="D242" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>15</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14652,6 +14652,296 @@
         <v>4</v>
       </c>
     </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>26</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>2</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>2</v>
+      </c>
+      <c r="I490">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>13</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>2</v>
+      </c>
+      <c r="H491">
+        <v>11</v>
+      </c>
+      <c r="I491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>24</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>9</v>
+      </c>
+      <c r="I492">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>9</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>7</v>
+      </c>
+      <c r="I493">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>28</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>4</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>5</v>
+      </c>
+      <c r="I494">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>22</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>4</v>
+      </c>
+      <c r="H495">
+        <v>11</v>
+      </c>
+      <c r="I495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>19</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>2</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>6</v>
+      </c>
+      <c r="I496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <v>2</v>
+      </c>
+      <c r="H497">
+        <v>4</v>
+      </c>
+      <c r="I497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>15</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>8</v>
+      </c>
+      <c r="I498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>14</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>3</v>
+      </c>
+      <c r="I499">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14659,7 +14949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18830,6 +19120,91 @@
         <v>21</v>
       </c>
     </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I499"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14942,6 +14942,180 @@
         <v>8</v>
       </c>
     </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>14</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>4</v>
+      </c>
+      <c r="G500">
+        <v>6</v>
+      </c>
+      <c r="H500">
+        <v>6</v>
+      </c>
+      <c r="I500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>20</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501">
+        <v>6</v>
+      </c>
+      <c r="G501">
+        <v>4</v>
+      </c>
+      <c r="H501">
+        <v>4</v>
+      </c>
+      <c r="I501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>22</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502">
+        <v>7</v>
+      </c>
+      <c r="I502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>16</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>3</v>
+      </c>
+      <c r="I503">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>23</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>2</v>
+      </c>
+      <c r="I504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>25</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>8</v>
+      </c>
+      <c r="I505">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14949,7 +15123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19205,6 +19379,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15116,6 +15116,1456 @@
         <v>2</v>
       </c>
     </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>18</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>3</v>
+      </c>
+      <c r="G506">
+        <v>2</v>
+      </c>
+      <c r="H506">
+        <v>4</v>
+      </c>
+      <c r="I506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>27</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>2</v>
+      </c>
+      <c r="G507">
+        <v>3</v>
+      </c>
+      <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>10</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>2</v>
+      </c>
+      <c r="H508">
+        <v>3</v>
+      </c>
+      <c r="I508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>15</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+      <c r="F509">
+        <v>2</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>2</v>
+      </c>
+      <c r="I509">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+      <c r="G510">
+        <v>2</v>
+      </c>
+      <c r="H510">
+        <v>6</v>
+      </c>
+      <c r="I510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>28</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>2</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>2</v>
+      </c>
+      <c r="I511">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>17</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>3</v>
+      </c>
+      <c r="G512">
+        <v>2</v>
+      </c>
+      <c r="H512">
+        <v>8</v>
+      </c>
+      <c r="I512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+      <c r="G513">
+        <v>3</v>
+      </c>
+      <c r="H513">
+        <v>2</v>
+      </c>
+      <c r="I513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>13</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>8</v>
+      </c>
+      <c r="I514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>19</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>7</v>
+      </c>
+      <c r="I515">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>21</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+      <c r="G516">
+        <v>2</v>
+      </c>
+      <c r="H516">
+        <v>2</v>
+      </c>
+      <c r="I516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>26</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
+      <c r="F517">
+        <v>2</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>5</v>
+      </c>
+      <c r="I517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>5</v>
+      </c>
+      <c r="I518">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>24</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>5</v>
+      </c>
+      <c r="I519">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>2</v>
+      </c>
+      <c r="H520">
+        <v>12</v>
+      </c>
+      <c r="I520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>15</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+      <c r="I521">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>20</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>5</v>
+      </c>
+      <c r="I522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>3</v>
+      </c>
+      <c r="I523">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>22</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>6</v>
+      </c>
+      <c r="I524">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>17</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>6</v>
+      </c>
+      <c r="I525">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>14</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>2</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>6</v>
+      </c>
+      <c r="I526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>16</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>2</v>
+      </c>
+      <c r="H527">
+        <v>3</v>
+      </c>
+      <c r="I527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>11</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>2</v>
+      </c>
+      <c r="H528">
+        <v>7</v>
+      </c>
+      <c r="I528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>21</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>2</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+      <c r="H529">
+        <v>2</v>
+      </c>
+      <c r="I529">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>24</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>2</v>
+      </c>
+      <c r="H530">
+        <v>9</v>
+      </c>
+      <c r="I530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>2</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+      <c r="H531">
+        <v>3</v>
+      </c>
+      <c r="I531">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>28</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532">
+        <v>3</v>
+      </c>
+      <c r="H532">
+        <v>5</v>
+      </c>
+      <c r="I532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>19</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533">
+        <v>3</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+      <c r="H533">
+        <v>4</v>
+      </c>
+      <c r="I533">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>10</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>3</v>
+      </c>
+      <c r="G534">
+        <v>3</v>
+      </c>
+      <c r="H534">
+        <v>15</v>
+      </c>
+      <c r="I534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>23</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>3</v>
+      </c>
+      <c r="G535">
+        <v>3</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+      <c r="I535">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>13</v>
+      </c>
+      <c r="I536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+      <c r="E537">
+        <v>1</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537">
+        <v>2</v>
+      </c>
+      <c r="I537">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>20</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>2</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>7</v>
+      </c>
+      <c r="I538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>17</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+      <c r="G539">
+        <v>2</v>
+      </c>
+      <c r="H539">
+        <v>2</v>
+      </c>
+      <c r="I539">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>16</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>3</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>6</v>
+      </c>
+      <c r="I540">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>27</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <v>3</v>
+      </c>
+      <c r="H541">
+        <v>3</v>
+      </c>
+      <c r="I541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>15</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542">
+        <v>6</v>
+      </c>
+      <c r="I542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>13</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>3</v>
+      </c>
+      <c r="I543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>7</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544">
+        <v>3</v>
+      </c>
+      <c r="I544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>28</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>7</v>
+      </c>
+      <c r="H545">
+        <v>6</v>
+      </c>
+      <c r="I545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>21</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>24</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547">
+        <v>7</v>
+      </c>
+      <c r="I547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>25</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>7</v>
+      </c>
+      <c r="I548">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>22</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549">
+        <v>8</v>
+      </c>
+      <c r="I549">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>19</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>7</v>
+      </c>
+      <c r="I550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>3</v>
+      </c>
+      <c r="I551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>23</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>4</v>
+      </c>
+      <c r="I552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>9</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>4</v>
+      </c>
+      <c r="I553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" t="s">
+        <v>26</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>2</v>
+      </c>
+      <c r="H554">
+        <v>3</v>
+      </c>
+      <c r="I554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>11</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>2</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555">
+        <v>6</v>
+      </c>
+      <c r="I555">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15123,7 +16573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19430,6 +20880,431 @@
         <v>25</v>
       </c>
     </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>13</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>24</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>16</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>15</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>16</v>
+      </c>
+      <c r="E271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>9</v>
+      </c>
+      <c r="D272" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>8</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>18</v>
+      </c>
+      <c r="E273" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>15</v>
+      </c>
+      <c r="D275" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>9</v>
+      </c>
+      <c r="D278" t="s">
+        <v>26</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12506,4066 +12506,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
-      <c r="A416" t="s">
-        <v>13</v>
-      </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-      <c r="C416">
-        <v>1</v>
-      </c>
-      <c r="D416">
-        <v>1</v>
-      </c>
-      <c r="E416">
-        <v>1</v>
-      </c>
-      <c r="F416">
-        <v>1</v>
-      </c>
-      <c r="G416">
-        <v>1</v>
-      </c>
-      <c r="H416">
-        <v>12</v>
-      </c>
-      <c r="I416">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9">
-      <c r="A417" t="s">
-        <v>21</v>
-      </c>
-      <c r="B417">
-        <v>0</v>
-      </c>
-      <c r="C417">
-        <v>1</v>
-      </c>
-      <c r="D417">
-        <v>1</v>
-      </c>
-      <c r="E417">
-        <v>1</v>
-      </c>
-      <c r="F417">
-        <v>1</v>
-      </c>
-      <c r="G417">
-        <v>1</v>
-      </c>
-      <c r="H417">
-        <v>7</v>
-      </c>
-      <c r="I417">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9">
-      <c r="A418" t="s">
-        <v>14</v>
-      </c>
-      <c r="B418">
-        <v>1</v>
-      </c>
-      <c r="C418">
-        <v>0</v>
-      </c>
-      <c r="D418">
-        <v>0</v>
-      </c>
-      <c r="E418">
-        <v>0</v>
-      </c>
-      <c r="F418">
-        <v>0</v>
-      </c>
-      <c r="G418">
-        <v>0</v>
-      </c>
-      <c r="H418">
-        <v>5</v>
-      </c>
-      <c r="I418">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9">
-      <c r="A419" t="s">
-        <v>18</v>
-      </c>
-      <c r="B419">
-        <v>0</v>
-      </c>
-      <c r="C419">
-        <v>0</v>
-      </c>
-      <c r="D419">
-        <v>0</v>
-      </c>
-      <c r="E419">
-        <v>0</v>
-      </c>
-      <c r="F419">
-        <v>0</v>
-      </c>
-      <c r="G419">
-        <v>0</v>
-      </c>
-      <c r="H419">
-        <v>5</v>
-      </c>
-      <c r="I419">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9">
-      <c r="A420" t="s">
-        <v>15</v>
-      </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-      <c r="C420">
-        <v>1</v>
-      </c>
-      <c r="D420">
-        <v>1</v>
-      </c>
-      <c r="E420">
-        <v>1</v>
-      </c>
-      <c r="F420">
-        <v>1</v>
-      </c>
-      <c r="G420">
-        <v>2</v>
-      </c>
-      <c r="H420">
-        <v>12</v>
-      </c>
-      <c r="I420">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9">
-      <c r="A421" t="s">
-        <v>25</v>
-      </c>
-      <c r="B421">
-        <v>0</v>
-      </c>
-      <c r="C421">
-        <v>1</v>
-      </c>
-      <c r="D421">
-        <v>1</v>
-      </c>
-      <c r="E421">
-        <v>1</v>
-      </c>
-      <c r="F421">
-        <v>2</v>
-      </c>
-      <c r="G421">
-        <v>1</v>
-      </c>
-      <c r="H421">
-        <v>6</v>
-      </c>
-      <c r="I421">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9">
-      <c r="A422" t="s">
-        <v>27</v>
-      </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-      <c r="C422">
-        <v>1</v>
-      </c>
-      <c r="D422">
-        <v>0</v>
-      </c>
-      <c r="E422">
-        <v>0</v>
-      </c>
-      <c r="F422">
-        <v>2</v>
-      </c>
-      <c r="G422">
-        <v>0</v>
-      </c>
-      <c r="H422">
-        <v>2</v>
-      </c>
-      <c r="I422">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9">
-      <c r="A423" t="s">
-        <v>12</v>
-      </c>
-      <c r="B423">
-        <v>0</v>
-      </c>
-      <c r="C423">
-        <v>0</v>
-      </c>
-      <c r="D423">
-        <v>1</v>
-      </c>
-      <c r="E423">
-        <v>0</v>
-      </c>
-      <c r="F423">
-        <v>0</v>
-      </c>
-      <c r="G423">
-        <v>2</v>
-      </c>
-      <c r="H423">
-        <v>9</v>
-      </c>
-      <c r="I423">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9">
-      <c r="A424" t="s">
-        <v>10</v>
-      </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-      <c r="C424">
-        <v>1</v>
-      </c>
-      <c r="D424">
-        <v>0</v>
-      </c>
-      <c r="E424">
-        <v>0</v>
-      </c>
-      <c r="F424">
-        <v>1</v>
-      </c>
-      <c r="G424">
-        <v>0</v>
-      </c>
-      <c r="H424">
-        <v>5</v>
-      </c>
-      <c r="I424">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9">
-      <c r="A425" t="s">
-        <v>17</v>
-      </c>
-      <c r="B425">
-        <v>0</v>
-      </c>
-      <c r="C425">
-        <v>0</v>
-      </c>
-      <c r="D425">
-        <v>1</v>
-      </c>
-      <c r="E425">
-        <v>0</v>
-      </c>
-      <c r="F425">
-        <v>0</v>
-      </c>
-      <c r="G425">
-        <v>1</v>
-      </c>
-      <c r="H425">
-        <v>7</v>
-      </c>
-      <c r="I425">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9">
-      <c r="A426" t="s">
-        <v>23</v>
-      </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-      <c r="C426">
-        <v>0</v>
-      </c>
-      <c r="D426">
-        <v>0</v>
-      </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-      <c r="F426">
-        <v>0</v>
-      </c>
-      <c r="G426">
-        <v>0</v>
-      </c>
-      <c r="H426">
-        <v>2</v>
-      </c>
-      <c r="I426">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9">
-      <c r="A427" t="s">
-        <v>11</v>
-      </c>
-      <c r="B427">
-        <v>0</v>
-      </c>
-      <c r="C427">
-        <v>0</v>
-      </c>
-      <c r="D427">
-        <v>0</v>
-      </c>
-      <c r="E427">
-        <v>0</v>
-      </c>
-      <c r="F427">
-        <v>0</v>
-      </c>
-      <c r="G427">
-        <v>0</v>
-      </c>
-      <c r="H427">
-        <v>11</v>
-      </c>
-      <c r="I427">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9">
-      <c r="A428" t="s">
-        <v>9</v>
-      </c>
-      <c r="B428">
-        <v>1</v>
-      </c>
-      <c r="C428">
-        <v>1</v>
-      </c>
-      <c r="D428">
-        <v>0</v>
-      </c>
-      <c r="E428">
-        <v>0</v>
-      </c>
-      <c r="F428">
-        <v>2</v>
-      </c>
-      <c r="G428">
-        <v>0</v>
-      </c>
-      <c r="H428">
-        <v>3</v>
-      </c>
-      <c r="I428">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9">
-      <c r="A429" t="s">
-        <v>28</v>
-      </c>
-      <c r="B429">
-        <v>0</v>
-      </c>
-      <c r="C429">
-        <v>0</v>
-      </c>
-      <c r="D429">
-        <v>1</v>
-      </c>
-      <c r="E429">
-        <v>0</v>
-      </c>
-      <c r="F429">
-        <v>0</v>
-      </c>
-      <c r="G429">
-        <v>2</v>
-      </c>
-      <c r="H429">
-        <v>5</v>
-      </c>
-      <c r="I429">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9">
-      <c r="A430" t="s">
-        <v>24</v>
-      </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-      <c r="C430">
-        <v>0</v>
-      </c>
-      <c r="D430">
-        <v>0</v>
-      </c>
-      <c r="E430">
-        <v>0</v>
-      </c>
-      <c r="F430">
-        <v>0</v>
-      </c>
-      <c r="G430">
-        <v>0</v>
-      </c>
-      <c r="H430">
-        <v>8</v>
-      </c>
-      <c r="I430">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9">
-      <c r="A431" t="s">
-        <v>19</v>
-      </c>
-      <c r="B431">
-        <v>0</v>
-      </c>
-      <c r="C431">
-        <v>0</v>
-      </c>
-      <c r="D431">
-        <v>0</v>
-      </c>
-      <c r="E431">
-        <v>0</v>
-      </c>
-      <c r="F431">
-        <v>0</v>
-      </c>
-      <c r="G431">
-        <v>0</v>
-      </c>
-      <c r="H431">
-        <v>5</v>
-      </c>
-      <c r="I431">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9">
-      <c r="A432" t="s">
-        <v>20</v>
-      </c>
-      <c r="B432">
-        <v>1</v>
-      </c>
-      <c r="C432">
-        <v>1</v>
-      </c>
-      <c r="D432">
-        <v>1</v>
-      </c>
-      <c r="E432">
-        <v>1</v>
-      </c>
-      <c r="F432">
-        <v>1</v>
-      </c>
-      <c r="G432">
-        <v>1</v>
-      </c>
-      <c r="H432">
-        <v>6</v>
-      </c>
-      <c r="I432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9">
-      <c r="A433" t="s">
-        <v>22</v>
-      </c>
-      <c r="B433">
-        <v>0</v>
-      </c>
-      <c r="C433">
-        <v>1</v>
-      </c>
-      <c r="D433">
-        <v>1</v>
-      </c>
-      <c r="E433">
-        <v>1</v>
-      </c>
-      <c r="F433">
-        <v>1</v>
-      </c>
-      <c r="G433">
-        <v>1</v>
-      </c>
-      <c r="H433">
-        <v>0</v>
-      </c>
-      <c r="I433">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9">
-      <c r="A434" t="s">
-        <v>18</v>
-      </c>
-      <c r="B434">
-        <v>1</v>
-      </c>
-      <c r="C434">
-        <v>1</v>
-      </c>
-      <c r="D434">
-        <v>1</v>
-      </c>
-      <c r="E434">
-        <v>1</v>
-      </c>
-      <c r="F434">
-        <v>2</v>
-      </c>
-      <c r="G434">
-        <v>1</v>
-      </c>
-      <c r="H434">
-        <v>4</v>
-      </c>
-      <c r="I434">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9">
-      <c r="A435" t="s">
-        <v>16</v>
-      </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-      <c r="C435">
-        <v>1</v>
-      </c>
-      <c r="D435">
-        <v>1</v>
-      </c>
-      <c r="E435">
-        <v>1</v>
-      </c>
-      <c r="F435">
-        <v>1</v>
-      </c>
-      <c r="G435">
-        <v>2</v>
-      </c>
-      <c r="H435">
-        <v>7</v>
-      </c>
-      <c r="I435">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9">
-      <c r="A436" t="s">
-        <v>25</v>
-      </c>
-      <c r="B436">
-        <v>1</v>
-      </c>
-      <c r="C436">
-        <v>0</v>
-      </c>
-      <c r="D436">
-        <v>1</v>
-      </c>
-      <c r="E436">
-        <v>0</v>
-      </c>
-      <c r="F436">
-        <v>0</v>
-      </c>
-      <c r="G436">
-        <v>3</v>
-      </c>
-      <c r="H436">
-        <v>8</v>
-      </c>
-      <c r="I436">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9">
-      <c r="A437" t="s">
-        <v>13</v>
-      </c>
-      <c r="B437">
-        <v>0</v>
-      </c>
-      <c r="C437">
-        <v>1</v>
-      </c>
-      <c r="D437">
-        <v>0</v>
-      </c>
-      <c r="E437">
-        <v>0</v>
-      </c>
-      <c r="F437">
-        <v>3</v>
-      </c>
-      <c r="G437">
-        <v>0</v>
-      </c>
-      <c r="H437">
-        <v>2</v>
-      </c>
-      <c r="I437">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9">
-      <c r="A438" t="s">
-        <v>28</v>
-      </c>
-      <c r="B438">
-        <v>1</v>
-      </c>
-      <c r="C438">
-        <v>0</v>
-      </c>
-      <c r="D438">
-        <v>1</v>
-      </c>
-      <c r="E438">
-        <v>0</v>
-      </c>
-      <c r="F438">
-        <v>0</v>
-      </c>
-      <c r="G438">
-        <v>3</v>
-      </c>
-      <c r="H438">
-        <v>8</v>
-      </c>
-      <c r="I438">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9">
-      <c r="A439" t="s">
-        <v>24</v>
-      </c>
-      <c r="B439">
-        <v>0</v>
-      </c>
-      <c r="C439">
-        <v>1</v>
-      </c>
-      <c r="D439">
-        <v>0</v>
-      </c>
-      <c r="E439">
-        <v>0</v>
-      </c>
-      <c r="F439">
-        <v>3</v>
-      </c>
-      <c r="G439">
-        <v>0</v>
-      </c>
-      <c r="H439">
-        <v>9</v>
-      </c>
-      <c r="I439">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9">
-      <c r="A440" t="s">
-        <v>17</v>
-      </c>
-      <c r="B440">
-        <v>1</v>
-      </c>
-      <c r="C440">
-        <v>1</v>
-      </c>
-      <c r="D440">
-        <v>1</v>
-      </c>
-      <c r="E440">
-        <v>1</v>
-      </c>
-      <c r="F440">
-        <v>2</v>
-      </c>
-      <c r="G440">
-        <v>1</v>
-      </c>
-      <c r="H440">
-        <v>6</v>
-      </c>
-      <c r="I440">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9">
-      <c r="A441" t="s">
-        <v>23</v>
-      </c>
-      <c r="B441">
-        <v>0</v>
-      </c>
-      <c r="C441">
-        <v>1</v>
-      </c>
-      <c r="D441">
-        <v>1</v>
-      </c>
-      <c r="E441">
-        <v>1</v>
-      </c>
-      <c r="F441">
-        <v>1</v>
-      </c>
-      <c r="G441">
-        <v>2</v>
-      </c>
-      <c r="H441">
-        <v>3</v>
-      </c>
-      <c r="I441">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9">
-      <c r="A442" t="s">
-        <v>26</v>
-      </c>
-      <c r="B442">
-        <v>1</v>
-      </c>
-      <c r="C442">
-        <v>1</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
-      </c>
-      <c r="E442">
-        <v>1</v>
-      </c>
-      <c r="F442">
-        <v>2</v>
-      </c>
-      <c r="G442">
-        <v>4</v>
-      </c>
-      <c r="H442">
-        <v>7</v>
-      </c>
-      <c r="I442">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9">
-      <c r="A443" t="s">
-        <v>20</v>
-      </c>
-      <c r="B443">
-        <v>0</v>
-      </c>
-      <c r="C443">
-        <v>1</v>
-      </c>
-      <c r="D443">
-        <v>1</v>
-      </c>
-      <c r="E443">
-        <v>1</v>
-      </c>
-      <c r="F443">
-        <v>4</v>
-      </c>
-      <c r="G443">
-        <v>2</v>
-      </c>
-      <c r="H443">
-        <v>2</v>
-      </c>
-      <c r="I443">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9">
-      <c r="A444" t="s">
-        <v>19</v>
-      </c>
-      <c r="B444">
-        <v>1</v>
-      </c>
-      <c r="C444">
-        <v>1</v>
-      </c>
-      <c r="D444">
-        <v>0</v>
-      </c>
-      <c r="E444">
-        <v>0</v>
-      </c>
-      <c r="F444">
-        <v>2</v>
-      </c>
-      <c r="G444">
-        <v>0</v>
-      </c>
-      <c r="H444">
-        <v>5</v>
-      </c>
-      <c r="I444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9">
-      <c r="A445" t="s">
-        <v>27</v>
-      </c>
-      <c r="B445">
-        <v>0</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445">
-        <v>1</v>
-      </c>
-      <c r="E445">
-        <v>0</v>
-      </c>
-      <c r="F445">
-        <v>0</v>
-      </c>
-      <c r="G445">
-        <v>2</v>
-      </c>
-      <c r="H445">
-        <v>1</v>
-      </c>
-      <c r="I445">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9">
-      <c r="A446" t="s">
-        <v>12</v>
-      </c>
-      <c r="B446">
-        <v>1</v>
-      </c>
-      <c r="C446">
-        <v>1</v>
-      </c>
-      <c r="D446">
-        <v>1</v>
-      </c>
-      <c r="E446">
-        <v>1</v>
-      </c>
-      <c r="F446">
-        <v>2</v>
-      </c>
-      <c r="G446">
-        <v>2</v>
-      </c>
-      <c r="H446">
-        <v>9</v>
-      </c>
-      <c r="I446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9">
-      <c r="A447" t="s">
-        <v>9</v>
-      </c>
-      <c r="B447">
-        <v>0</v>
-      </c>
-      <c r="C447">
-        <v>1</v>
-      </c>
-      <c r="D447">
-        <v>1</v>
-      </c>
-      <c r="E447">
-        <v>1</v>
-      </c>
-      <c r="F447">
-        <v>2</v>
-      </c>
-      <c r="G447">
-        <v>2</v>
-      </c>
-      <c r="H447">
-        <v>1</v>
-      </c>
-      <c r="I447">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9">
-      <c r="A448" t="s">
-        <v>11</v>
-      </c>
-      <c r="B448">
-        <v>1</v>
-      </c>
-      <c r="C448">
-        <v>1</v>
-      </c>
-      <c r="D448">
-        <v>0</v>
-      </c>
-      <c r="E448">
-        <v>0</v>
-      </c>
-      <c r="F448">
-        <v>1</v>
-      </c>
-      <c r="G448">
-        <v>0</v>
-      </c>
-      <c r="H448">
-        <v>6</v>
-      </c>
-      <c r="I448">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9">
-      <c r="A449" t="s">
-        <v>14</v>
-      </c>
-      <c r="B449">
-        <v>0</v>
-      </c>
-      <c r="C449">
-        <v>0</v>
-      </c>
-      <c r="D449">
-        <v>1</v>
-      </c>
-      <c r="E449">
-        <v>0</v>
-      </c>
-      <c r="F449">
-        <v>0</v>
-      </c>
-      <c r="G449">
-        <v>1</v>
-      </c>
-      <c r="H449">
-        <v>3</v>
-      </c>
-      <c r="I449">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9">
-      <c r="A450" t="s">
-        <v>22</v>
-      </c>
-      <c r="B450">
-        <v>1</v>
-      </c>
-      <c r="C450">
-        <v>1</v>
-      </c>
-      <c r="D450">
-        <v>1</v>
-      </c>
-      <c r="E450">
-        <v>1</v>
-      </c>
-      <c r="F450">
-        <v>4</v>
-      </c>
-      <c r="G450">
-        <v>2</v>
-      </c>
-      <c r="H450">
-        <v>4</v>
-      </c>
-      <c r="I450">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9">
-      <c r="A451" t="s">
-        <v>10</v>
-      </c>
-      <c r="B451">
-        <v>0</v>
-      </c>
-      <c r="C451">
-        <v>1</v>
-      </c>
-      <c r="D451">
-        <v>1</v>
-      </c>
-      <c r="E451">
-        <v>1</v>
-      </c>
-      <c r="F451">
-        <v>2</v>
-      </c>
-      <c r="G451">
-        <v>4</v>
-      </c>
-      <c r="H451">
-        <v>11</v>
-      </c>
-      <c r="I451">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9">
-      <c r="A452" t="s">
-        <v>21</v>
-      </c>
-      <c r="B452">
-        <v>1</v>
-      </c>
-      <c r="C452">
-        <v>1</v>
-      </c>
-      <c r="D452">
-        <v>0</v>
-      </c>
-      <c r="E452">
-        <v>0</v>
-      </c>
-      <c r="F452">
-        <v>1</v>
-      </c>
-      <c r="G452">
-        <v>0</v>
-      </c>
-      <c r="H452">
-        <v>5</v>
-      </c>
-      <c r="I452">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9">
-      <c r="A453" t="s">
-        <v>15</v>
-      </c>
-      <c r="B453">
-        <v>0</v>
-      </c>
-      <c r="C453">
-        <v>0</v>
-      </c>
-      <c r="D453">
-        <v>1</v>
-      </c>
-      <c r="E453">
-        <v>0</v>
-      </c>
-      <c r="F453">
-        <v>0</v>
-      </c>
-      <c r="G453">
-        <v>1</v>
-      </c>
-      <c r="H453">
-        <v>3</v>
-      </c>
-      <c r="I453">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9">
-      <c r="A454" t="s">
-        <v>20</v>
-      </c>
-      <c r="B454">
-        <v>1</v>
-      </c>
-      <c r="C454">
-        <v>1</v>
-      </c>
-      <c r="D454">
-        <v>1</v>
-      </c>
-      <c r="E454">
-        <v>1</v>
-      </c>
-      <c r="F454">
-        <v>1</v>
-      </c>
-      <c r="G454">
-        <v>2</v>
-      </c>
-      <c r="H454">
-        <v>6</v>
-      </c>
-      <c r="I454">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9">
-      <c r="A455" t="s">
-        <v>28</v>
-      </c>
-      <c r="B455">
-        <v>0</v>
-      </c>
-      <c r="C455">
-        <v>1</v>
-      </c>
-      <c r="D455">
-        <v>1</v>
-      </c>
-      <c r="E455">
-        <v>1</v>
-      </c>
-      <c r="F455">
-        <v>2</v>
-      </c>
-      <c r="G455">
-        <v>1</v>
-      </c>
-      <c r="H455">
-        <v>8</v>
-      </c>
-      <c r="I455">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9">
-      <c r="A456" t="s">
-        <v>23</v>
-      </c>
-      <c r="B456">
-        <v>1</v>
-      </c>
-      <c r="C456">
-        <v>1</v>
-      </c>
-      <c r="D456">
-        <v>1</v>
-      </c>
-      <c r="E456">
-        <v>1</v>
-      </c>
-      <c r="F456">
-        <v>4</v>
-      </c>
-      <c r="G456">
-        <v>4</v>
-      </c>
-      <c r="H456">
-        <v>6</v>
-      </c>
-      <c r="I456">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9">
-      <c r="A457" t="s">
-        <v>27</v>
-      </c>
-      <c r="B457">
-        <v>0</v>
-      </c>
-      <c r="C457">
-        <v>1</v>
-      </c>
-      <c r="D457">
-        <v>1</v>
-      </c>
-      <c r="E457">
-        <v>1</v>
-      </c>
-      <c r="F457">
-        <v>4</v>
-      </c>
-      <c r="G457">
-        <v>4</v>
-      </c>
-      <c r="H457">
-        <v>4</v>
-      </c>
-      <c r="I457">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9">
-      <c r="A458" t="s">
-        <v>9</v>
-      </c>
-      <c r="B458">
-        <v>1</v>
-      </c>
-      <c r="C458">
-        <v>0</v>
-      </c>
-      <c r="D458">
-        <v>1</v>
-      </c>
-      <c r="E458">
-        <v>0</v>
-      </c>
-      <c r="F458">
-        <v>0</v>
-      </c>
-      <c r="G458">
-        <v>2</v>
-      </c>
-      <c r="H458">
-        <v>2</v>
-      </c>
-      <c r="I458">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9">
-      <c r="A459" t="s">
-        <v>19</v>
-      </c>
-      <c r="B459">
-        <v>0</v>
-      </c>
-      <c r="C459">
-        <v>1</v>
-      </c>
-      <c r="D459">
-        <v>0</v>
-      </c>
-      <c r="E459">
-        <v>0</v>
-      </c>
-      <c r="F459">
-        <v>2</v>
-      </c>
-      <c r="G459">
-        <v>0</v>
-      </c>
-      <c r="H459">
-        <v>14</v>
-      </c>
-      <c r="I459">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9">
-      <c r="A460" t="s">
-        <v>14</v>
-      </c>
-      <c r="B460">
-        <v>1</v>
-      </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
-      <c r="D460">
-        <v>0</v>
-      </c>
-      <c r="E460">
-        <v>0</v>
-      </c>
-      <c r="F460">
-        <v>0</v>
-      </c>
-      <c r="G460">
-        <v>0</v>
-      </c>
-      <c r="H460">
-        <v>3</v>
-      </c>
-      <c r="I460">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9">
-      <c r="A461" t="s">
-        <v>25</v>
-      </c>
-      <c r="B461">
-        <v>0</v>
-      </c>
-      <c r="C461">
-        <v>0</v>
-      </c>
-      <c r="D461">
-        <v>0</v>
-      </c>
-      <c r="E461">
-        <v>0</v>
-      </c>
-      <c r="F461">
-        <v>0</v>
-      </c>
-      <c r="G461">
-        <v>0</v>
-      </c>
-      <c r="H461">
-        <v>2</v>
-      </c>
-      <c r="I461">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9">
-      <c r="A462" t="s">
-        <v>10</v>
-      </c>
-      <c r="B462">
-        <v>1</v>
-      </c>
-      <c r="C462">
-        <v>1</v>
-      </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
-      <c r="E462">
-        <v>0</v>
-      </c>
-      <c r="F462">
-        <v>1</v>
-      </c>
-      <c r="G462">
-        <v>0</v>
-      </c>
-      <c r="H462">
-        <v>7</v>
-      </c>
-      <c r="I462">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9">
-      <c r="A463" t="s">
-        <v>24</v>
-      </c>
-      <c r="B463">
-        <v>0</v>
-      </c>
-      <c r="C463">
-        <v>0</v>
-      </c>
-      <c r="D463">
-        <v>1</v>
-      </c>
-      <c r="E463">
-        <v>0</v>
-      </c>
-      <c r="F463">
-        <v>0</v>
-      </c>
-      <c r="G463">
-        <v>1</v>
-      </c>
-      <c r="H463">
-        <v>3</v>
-      </c>
-      <c r="I463">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9">
-      <c r="A464" t="s">
-        <v>16</v>
-      </c>
-      <c r="B464">
-        <v>1</v>
-      </c>
-      <c r="C464">
-        <v>1</v>
-      </c>
-      <c r="D464">
-        <v>1</v>
-      </c>
-      <c r="E464">
-        <v>1</v>
-      </c>
-      <c r="F464">
-        <v>1</v>
-      </c>
-      <c r="G464">
-        <v>2</v>
-      </c>
-      <c r="H464">
-        <v>9</v>
-      </c>
-      <c r="I464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9">
-      <c r="A465" t="s">
-        <v>17</v>
-      </c>
-      <c r="B465">
-        <v>0</v>
-      </c>
-      <c r="C465">
-        <v>1</v>
-      </c>
-      <c r="D465">
-        <v>1</v>
-      </c>
-      <c r="E465">
-        <v>1</v>
-      </c>
-      <c r="F465">
-        <v>2</v>
-      </c>
-      <c r="G465">
-        <v>1</v>
-      </c>
-      <c r="H465">
-        <v>0</v>
-      </c>
-      <c r="I465">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9">
-      <c r="A466" t="s">
-        <v>22</v>
-      </c>
-      <c r="B466">
-        <v>1</v>
-      </c>
-      <c r="C466">
-        <v>1</v>
-      </c>
-      <c r="D466">
-        <v>1</v>
-      </c>
-      <c r="E466">
-        <v>1</v>
-      </c>
-      <c r="F466">
-        <v>5</v>
-      </c>
-      <c r="G466">
-        <v>1</v>
-      </c>
-      <c r="H466">
-        <v>6</v>
-      </c>
-      <c r="I466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9">
-      <c r="A467" t="s">
-        <v>26</v>
-      </c>
-      <c r="B467">
-        <v>0</v>
-      </c>
-      <c r="C467">
-        <v>1</v>
-      </c>
-      <c r="D467">
-        <v>1</v>
-      </c>
-      <c r="E467">
-        <v>1</v>
-      </c>
-      <c r="F467">
-        <v>1</v>
-      </c>
-      <c r="G467">
-        <v>5</v>
-      </c>
-      <c r="H467">
-        <v>0</v>
-      </c>
-      <c r="I467">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9">
-      <c r="A468" t="s">
-        <v>13</v>
-      </c>
-      <c r="B468">
-        <v>1</v>
-      </c>
-      <c r="C468">
-        <v>1</v>
-      </c>
-      <c r="D468">
-        <v>1</v>
-      </c>
-      <c r="E468">
-        <v>1</v>
-      </c>
-      <c r="F468">
-        <v>2</v>
-      </c>
-      <c r="G468">
-        <v>1</v>
-      </c>
-      <c r="H468">
-        <v>7</v>
-      </c>
-      <c r="I468">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9">
-      <c r="A469" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469">
-        <v>0</v>
-      </c>
-      <c r="C469">
-        <v>1</v>
-      </c>
-      <c r="D469">
-        <v>1</v>
-      </c>
-      <c r="E469">
-        <v>1</v>
-      </c>
-      <c r="F469">
-        <v>1</v>
-      </c>
-      <c r="G469">
-        <v>2</v>
-      </c>
-      <c r="H469">
-        <v>5</v>
-      </c>
-      <c r="I469">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9">
-      <c r="A470" t="s">
-        <v>27</v>
-      </c>
-      <c r="B470">
-        <v>1</v>
-      </c>
-      <c r="C470">
-        <v>1</v>
-      </c>
-      <c r="D470">
-        <v>0</v>
-      </c>
-      <c r="E470">
-        <v>0</v>
-      </c>
-      <c r="F470">
-        <v>1</v>
-      </c>
-      <c r="G470">
-        <v>0</v>
-      </c>
-      <c r="H470">
-        <v>2</v>
-      </c>
-      <c r="I470">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9">
-      <c r="A471" t="s">
-        <v>11</v>
-      </c>
-      <c r="B471">
-        <v>0</v>
-      </c>
-      <c r="C471">
-        <v>0</v>
-      </c>
-      <c r="D471">
-        <v>1</v>
-      </c>
-      <c r="E471">
-        <v>0</v>
-      </c>
-      <c r="F471">
-        <v>0</v>
-      </c>
-      <c r="G471">
-        <v>1</v>
-      </c>
-      <c r="H471">
-        <v>11</v>
-      </c>
-      <c r="I471">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9">
-      <c r="A472" t="s">
-        <v>23</v>
-      </c>
-      <c r="B472">
-        <v>1</v>
-      </c>
-      <c r="C472">
-        <v>1</v>
-      </c>
-      <c r="D472">
-        <v>0</v>
-      </c>
-      <c r="E472">
-        <v>0</v>
-      </c>
-      <c r="F472">
-        <v>1</v>
-      </c>
-      <c r="G472">
-        <v>0</v>
-      </c>
-      <c r="H472">
-        <v>6</v>
-      </c>
-      <c r="I472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9">
-      <c r="A473" t="s">
-        <v>15</v>
-      </c>
-      <c r="B473">
-        <v>0</v>
-      </c>
-      <c r="C473">
-        <v>0</v>
-      </c>
-      <c r="D473">
-        <v>1</v>
-      </c>
-      <c r="E473">
-        <v>0</v>
-      </c>
-      <c r="F473">
-        <v>0</v>
-      </c>
-      <c r="G473">
-        <v>1</v>
-      </c>
-      <c r="H473">
-        <v>1</v>
-      </c>
-      <c r="I473">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9">
-      <c r="A474" t="s">
-        <v>21</v>
-      </c>
-      <c r="B474">
-        <v>1</v>
-      </c>
-      <c r="C474">
-        <v>1</v>
-      </c>
-      <c r="D474">
-        <v>0</v>
-      </c>
-      <c r="E474">
-        <v>0</v>
-      </c>
-      <c r="F474">
-        <v>1</v>
-      </c>
-      <c r="G474">
-        <v>0</v>
-      </c>
-      <c r="H474">
-        <v>6</v>
-      </c>
-      <c r="I474">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9">
-      <c r="A475" t="s">
-        <v>12</v>
-      </c>
-      <c r="B475">
-        <v>0</v>
-      </c>
-      <c r="C475">
-        <v>0</v>
-      </c>
-      <c r="D475">
-        <v>1</v>
-      </c>
-      <c r="E475">
-        <v>0</v>
-      </c>
-      <c r="F475">
-        <v>0</v>
-      </c>
-      <c r="G475">
-        <v>1</v>
-      </c>
-      <c r="H475">
-        <v>3</v>
-      </c>
-      <c r="I475">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9">
-      <c r="A476" t="s">
-        <v>9</v>
-      </c>
-      <c r="B476">
-        <v>1</v>
-      </c>
-      <c r="C476">
-        <v>0</v>
-      </c>
-      <c r="D476">
-        <v>1</v>
-      </c>
-      <c r="E476">
-        <v>0</v>
-      </c>
-      <c r="F476">
-        <v>0</v>
-      </c>
-      <c r="G476">
-        <v>1</v>
-      </c>
-      <c r="H476">
-        <v>3</v>
-      </c>
-      <c r="I476">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9">
-      <c r="A477" t="s">
-        <v>22</v>
-      </c>
-      <c r="B477">
-        <v>0</v>
-      </c>
-      <c r="C477">
-        <v>1</v>
-      </c>
-      <c r="D477">
-        <v>0</v>
-      </c>
-      <c r="E477">
-        <v>0</v>
-      </c>
-      <c r="F477">
-        <v>1</v>
-      </c>
-      <c r="G477">
-        <v>0</v>
-      </c>
-      <c r="H477">
-        <v>8</v>
-      </c>
-      <c r="I477">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9">
-      <c r="A478" t="s">
-        <v>16</v>
-      </c>
-      <c r="B478">
-        <v>1</v>
-      </c>
-      <c r="C478">
-        <v>1</v>
-      </c>
-      <c r="D478">
-        <v>1</v>
-      </c>
-      <c r="E478">
-        <v>1</v>
-      </c>
-      <c r="F478">
-        <v>2</v>
-      </c>
-      <c r="G478">
-        <v>1</v>
-      </c>
-      <c r="H478">
-        <v>4</v>
-      </c>
-      <c r="I478">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9">
-      <c r="A479" t="s">
-        <v>26</v>
-      </c>
-      <c r="B479">
-        <v>0</v>
-      </c>
-      <c r="C479">
-        <v>1</v>
-      </c>
-      <c r="D479">
-        <v>1</v>
-      </c>
-      <c r="E479">
-        <v>1</v>
-      </c>
-      <c r="F479">
-        <v>1</v>
-      </c>
-      <c r="G479">
-        <v>2</v>
-      </c>
-      <c r="H479">
-        <v>3</v>
-      </c>
-      <c r="I479">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9">
-      <c r="A480" t="s">
-        <v>17</v>
-      </c>
-      <c r="B480">
-        <v>1</v>
-      </c>
-      <c r="C480">
-        <v>1</v>
-      </c>
-      <c r="D480">
-        <v>1</v>
-      </c>
-      <c r="E480">
-        <v>1</v>
-      </c>
-      <c r="F480">
-        <v>1</v>
-      </c>
-      <c r="G480">
-        <v>1</v>
-      </c>
-      <c r="H480">
-        <v>3</v>
-      </c>
-      <c r="I480">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9">
-      <c r="A481" t="s">
-        <v>27</v>
-      </c>
-      <c r="B481">
-        <v>0</v>
-      </c>
-      <c r="C481">
-        <v>1</v>
-      </c>
-      <c r="D481">
-        <v>1</v>
-      </c>
-      <c r="E481">
-        <v>1</v>
-      </c>
-      <c r="F481">
-        <v>1</v>
-      </c>
-      <c r="G481">
-        <v>1</v>
-      </c>
-      <c r="H481">
-        <v>7</v>
-      </c>
-      <c r="I481">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9">
-      <c r="A482" t="s">
-        <v>25</v>
-      </c>
-      <c r="B482">
-        <v>1</v>
-      </c>
-      <c r="C482">
-        <v>1</v>
-      </c>
-      <c r="D482">
-        <v>0</v>
-      </c>
-      <c r="E482">
-        <v>0</v>
-      </c>
-      <c r="F482">
-        <v>1</v>
-      </c>
-      <c r="G482">
-        <v>0</v>
-      </c>
-      <c r="H482">
-        <v>12</v>
-      </c>
-      <c r="I482">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9">
-      <c r="A483" t="s">
-        <v>20</v>
-      </c>
-      <c r="B483">
-        <v>0</v>
-      </c>
-      <c r="C483">
-        <v>0</v>
-      </c>
-      <c r="D483">
-        <v>1</v>
-      </c>
-      <c r="E483">
-        <v>0</v>
-      </c>
-      <c r="F483">
-        <v>0</v>
-      </c>
-      <c r="G483">
-        <v>1</v>
-      </c>
-      <c r="H483">
-        <v>2</v>
-      </c>
-      <c r="I483">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9">
-      <c r="A484" t="s">
-        <v>12</v>
-      </c>
-      <c r="B484">
-        <v>1</v>
-      </c>
-      <c r="C484">
-        <v>1</v>
-      </c>
-      <c r="D484">
-        <v>0</v>
-      </c>
-      <c r="E484">
-        <v>0</v>
-      </c>
-      <c r="F484">
-        <v>3</v>
-      </c>
-      <c r="G484">
-        <v>0</v>
-      </c>
-      <c r="H484">
-        <v>7</v>
-      </c>
-      <c r="I484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9">
-      <c r="A485" t="s">
-        <v>10</v>
-      </c>
-      <c r="B485">
-        <v>0</v>
-      </c>
-      <c r="C485">
-        <v>0</v>
-      </c>
-      <c r="D485">
-        <v>1</v>
-      </c>
-      <c r="E485">
-        <v>0</v>
-      </c>
-      <c r="F485">
-        <v>0</v>
-      </c>
-      <c r="G485">
-        <v>3</v>
-      </c>
-      <c r="H485">
-        <v>0</v>
-      </c>
-      <c r="I485">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9">
-      <c r="A486" t="s">
-        <v>16</v>
-      </c>
-      <c r="B486">
-        <v>1</v>
-      </c>
-      <c r="C486">
-        <v>1</v>
-      </c>
-      <c r="D486">
-        <v>1</v>
-      </c>
-      <c r="E486">
-        <v>1</v>
-      </c>
-      <c r="F486">
-        <v>2</v>
-      </c>
-      <c r="G486">
-        <v>1</v>
-      </c>
-      <c r="H486">
-        <v>11</v>
-      </c>
-      <c r="I486">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9">
-      <c r="A487" t="s">
-        <v>23</v>
-      </c>
-      <c r="B487">
-        <v>0</v>
-      </c>
-      <c r="C487">
-        <v>1</v>
-      </c>
-      <c r="D487">
-        <v>1</v>
-      </c>
-      <c r="E487">
-        <v>1</v>
-      </c>
-      <c r="F487">
-        <v>1</v>
-      </c>
-      <c r="G487">
-        <v>2</v>
-      </c>
-      <c r="H487">
-        <v>4</v>
-      </c>
-      <c r="I487">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9">
-      <c r="A488" t="s">
-        <v>18</v>
-      </c>
-      <c r="B488">
-        <v>1</v>
-      </c>
-      <c r="C488">
-        <v>0</v>
-      </c>
-      <c r="D488">
-        <v>1</v>
-      </c>
-      <c r="E488">
-        <v>0</v>
-      </c>
-      <c r="F488">
-        <v>0</v>
-      </c>
-      <c r="G488">
-        <v>2</v>
-      </c>
-      <c r="H488">
-        <v>4</v>
-      </c>
-      <c r="I488">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9">
-      <c r="A489" t="s">
-        <v>21</v>
-      </c>
-      <c r="B489">
-        <v>0</v>
-      </c>
-      <c r="C489">
-        <v>1</v>
-      </c>
-      <c r="D489">
-        <v>0</v>
-      </c>
-      <c r="E489">
-        <v>0</v>
-      </c>
-      <c r="F489">
-        <v>2</v>
-      </c>
-      <c r="G489">
-        <v>0</v>
-      </c>
-      <c r="H489">
-        <v>4</v>
-      </c>
-      <c r="I489">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9">
-      <c r="A490" t="s">
-        <v>26</v>
-      </c>
-      <c r="B490">
-        <v>1</v>
-      </c>
-      <c r="C490">
-        <v>1</v>
-      </c>
-      <c r="D490">
-        <v>0</v>
-      </c>
-      <c r="E490">
-        <v>0</v>
-      </c>
-      <c r="F490">
-        <v>2</v>
-      </c>
-      <c r="G490">
-        <v>0</v>
-      </c>
-      <c r="H490">
-        <v>2</v>
-      </c>
-      <c r="I490">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9">
-      <c r="A491" t="s">
-        <v>13</v>
-      </c>
-      <c r="B491">
-        <v>0</v>
-      </c>
-      <c r="C491">
-        <v>0</v>
-      </c>
-      <c r="D491">
-        <v>1</v>
-      </c>
-      <c r="E491">
-        <v>0</v>
-      </c>
-      <c r="F491">
-        <v>0</v>
-      </c>
-      <c r="G491">
-        <v>2</v>
-      </c>
-      <c r="H491">
-        <v>11</v>
-      </c>
-      <c r="I491">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9">
-      <c r="A492" t="s">
-        <v>24</v>
-      </c>
-      <c r="B492">
-        <v>1</v>
-      </c>
-      <c r="C492">
-        <v>1</v>
-      </c>
-      <c r="D492">
-        <v>1</v>
-      </c>
-      <c r="E492">
-        <v>1</v>
-      </c>
-      <c r="F492">
-        <v>1</v>
-      </c>
-      <c r="G492">
-        <v>1</v>
-      </c>
-      <c r="H492">
-        <v>9</v>
-      </c>
-      <c r="I492">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9">
-      <c r="A493" t="s">
-        <v>9</v>
-      </c>
-      <c r="B493">
-        <v>0</v>
-      </c>
-      <c r="C493">
-        <v>1</v>
-      </c>
-      <c r="D493">
-        <v>1</v>
-      </c>
-      <c r="E493">
-        <v>1</v>
-      </c>
-      <c r="F493">
-        <v>1</v>
-      </c>
-      <c r="G493">
-        <v>1</v>
-      </c>
-      <c r="H493">
-        <v>7</v>
-      </c>
-      <c r="I493">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9">
-      <c r="A494" t="s">
-        <v>28</v>
-      </c>
-      <c r="B494">
-        <v>1</v>
-      </c>
-      <c r="C494">
-        <v>1</v>
-      </c>
-      <c r="D494">
-        <v>1</v>
-      </c>
-      <c r="E494">
-        <v>1</v>
-      </c>
-      <c r="F494">
-        <v>4</v>
-      </c>
-      <c r="G494">
-        <v>1</v>
-      </c>
-      <c r="H494">
-        <v>5</v>
-      </c>
-      <c r="I494">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9">
-      <c r="A495" t="s">
-        <v>22</v>
-      </c>
-      <c r="B495">
-        <v>0</v>
-      </c>
-      <c r="C495">
-        <v>1</v>
-      </c>
-      <c r="D495">
-        <v>1</v>
-      </c>
-      <c r="E495">
-        <v>1</v>
-      </c>
-      <c r="F495">
-        <v>1</v>
-      </c>
-      <c r="G495">
-        <v>4</v>
-      </c>
-      <c r="H495">
-        <v>11</v>
-      </c>
-      <c r="I495">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9">
-      <c r="A496" t="s">
-        <v>19</v>
-      </c>
-      <c r="B496">
-        <v>1</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-      <c r="D496">
-        <v>1</v>
-      </c>
-      <c r="E496">
-        <v>1</v>
-      </c>
-      <c r="F496">
-        <v>2</v>
-      </c>
-      <c r="G496">
-        <v>1</v>
-      </c>
-      <c r="H496">
-        <v>6</v>
-      </c>
-      <c r="I496">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9">
-      <c r="A497" t="s">
-        <v>11</v>
-      </c>
-      <c r="B497">
-        <v>0</v>
-      </c>
-      <c r="C497">
-        <v>1</v>
-      </c>
-      <c r="D497">
-        <v>1</v>
-      </c>
-      <c r="E497">
-        <v>1</v>
-      </c>
-      <c r="F497">
-        <v>1</v>
-      </c>
-      <c r="G497">
-        <v>2</v>
-      </c>
-      <c r="H497">
-        <v>4</v>
-      </c>
-      <c r="I497">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9">
-      <c r="A498" t="s">
-        <v>15</v>
-      </c>
-      <c r="B498">
-        <v>1</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-      <c r="D498">
-        <v>1</v>
-      </c>
-      <c r="E498">
-        <v>1</v>
-      </c>
-      <c r="F498">
-        <v>1</v>
-      </c>
-      <c r="G498">
-        <v>1</v>
-      </c>
-      <c r="H498">
-        <v>8</v>
-      </c>
-      <c r="I498">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9">
-      <c r="A499" t="s">
-        <v>14</v>
-      </c>
-      <c r="B499">
-        <v>0</v>
-      </c>
-      <c r="C499">
-        <v>1</v>
-      </c>
-      <c r="D499">
-        <v>1</v>
-      </c>
-      <c r="E499">
-        <v>1</v>
-      </c>
-      <c r="F499">
-        <v>1</v>
-      </c>
-      <c r="G499">
-        <v>1</v>
-      </c>
-      <c r="H499">
-        <v>3</v>
-      </c>
-      <c r="I499">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9">
-      <c r="A500" t="s">
-        <v>14</v>
-      </c>
-      <c r="B500">
-        <v>1</v>
-      </c>
-      <c r="C500">
-        <v>1</v>
-      </c>
-      <c r="D500">
-        <v>1</v>
-      </c>
-      <c r="E500">
-        <v>1</v>
-      </c>
-      <c r="F500">
-        <v>4</v>
-      </c>
-      <c r="G500">
-        <v>6</v>
-      </c>
-      <c r="H500">
-        <v>6</v>
-      </c>
-      <c r="I500">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9">
-      <c r="A501" t="s">
-        <v>20</v>
-      </c>
-      <c r="B501">
-        <v>0</v>
-      </c>
-      <c r="C501">
-        <v>1</v>
-      </c>
-      <c r="D501">
-        <v>1</v>
-      </c>
-      <c r="E501">
-        <v>1</v>
-      </c>
-      <c r="F501">
-        <v>6</v>
-      </c>
-      <c r="G501">
-        <v>4</v>
-      </c>
-      <c r="H501">
-        <v>4</v>
-      </c>
-      <c r="I501">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9">
-      <c r="A502" t="s">
-        <v>22</v>
-      </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-      <c r="C502">
-        <v>0</v>
-      </c>
-      <c r="D502">
-        <v>0</v>
-      </c>
-      <c r="E502">
-        <v>0</v>
-      </c>
-      <c r="F502">
-        <v>0</v>
-      </c>
-      <c r="G502">
-        <v>0</v>
-      </c>
-      <c r="H502">
-        <v>7</v>
-      </c>
-      <c r="I502">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9">
-      <c r="A503" t="s">
-        <v>16</v>
-      </c>
-      <c r="B503">
-        <v>0</v>
-      </c>
-      <c r="C503">
-        <v>0</v>
-      </c>
-      <c r="D503">
-        <v>0</v>
-      </c>
-      <c r="E503">
-        <v>0</v>
-      </c>
-      <c r="F503">
-        <v>0</v>
-      </c>
-      <c r="G503">
-        <v>0</v>
-      </c>
-      <c r="H503">
-        <v>3</v>
-      </c>
-      <c r="I503">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9">
-      <c r="A504" t="s">
-        <v>23</v>
-      </c>
-      <c r="B504">
-        <v>1</v>
-      </c>
-      <c r="C504">
-        <v>1</v>
-      </c>
-      <c r="D504">
-        <v>1</v>
-      </c>
-      <c r="E504">
-        <v>1</v>
-      </c>
-      <c r="F504">
-        <v>1</v>
-      </c>
-      <c r="G504">
-        <v>1</v>
-      </c>
-      <c r="H504">
-        <v>2</v>
-      </c>
-      <c r="I504">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9">
-      <c r="A505" t="s">
-        <v>25</v>
-      </c>
-      <c r="B505">
-        <v>0</v>
-      </c>
-      <c r="C505">
-        <v>1</v>
-      </c>
-      <c r="D505">
-        <v>1</v>
-      </c>
-      <c r="E505">
-        <v>1</v>
-      </c>
-      <c r="F505">
-        <v>1</v>
-      </c>
-      <c r="G505">
-        <v>1</v>
-      </c>
-      <c r="H505">
-        <v>8</v>
-      </c>
-      <c r="I505">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9">
-      <c r="A506" t="s">
-        <v>18</v>
-      </c>
-      <c r="B506">
-        <v>1</v>
-      </c>
-      <c r="C506">
-        <v>1</v>
-      </c>
-      <c r="D506">
-        <v>1</v>
-      </c>
-      <c r="E506">
-        <v>1</v>
-      </c>
-      <c r="F506">
-        <v>3</v>
-      </c>
-      <c r="G506">
-        <v>2</v>
-      </c>
-      <c r="H506">
-        <v>4</v>
-      </c>
-      <c r="I506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9">
-      <c r="A507" t="s">
-        <v>27</v>
-      </c>
-      <c r="B507">
-        <v>0</v>
-      </c>
-      <c r="C507">
-        <v>1</v>
-      </c>
-      <c r="D507">
-        <v>1</v>
-      </c>
-      <c r="E507">
-        <v>1</v>
-      </c>
-      <c r="F507">
-        <v>2</v>
-      </c>
-      <c r="G507">
-        <v>3</v>
-      </c>
-      <c r="H507">
-        <v>1</v>
-      </c>
-      <c r="I507">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9">
-      <c r="A508" t="s">
-        <v>10</v>
-      </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-      <c r="C508">
-        <v>0</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
-      </c>
-      <c r="E508">
-        <v>0</v>
-      </c>
-      <c r="F508">
-        <v>0</v>
-      </c>
-      <c r="G508">
-        <v>2</v>
-      </c>
-      <c r="H508">
-        <v>3</v>
-      </c>
-      <c r="I508">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9">
-      <c r="A509" t="s">
-        <v>15</v>
-      </c>
-      <c r="B509">
-        <v>0</v>
-      </c>
-      <c r="C509">
-        <v>1</v>
-      </c>
-      <c r="D509">
-        <v>0</v>
-      </c>
-      <c r="E509">
-        <v>0</v>
-      </c>
-      <c r="F509">
-        <v>2</v>
-      </c>
-      <c r="G509">
-        <v>0</v>
-      </c>
-      <c r="H509">
-        <v>2</v>
-      </c>
-      <c r="I509">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9">
-      <c r="A510" t="s">
-        <v>11</v>
-      </c>
-      <c r="B510">
-        <v>1</v>
-      </c>
-      <c r="C510">
-        <v>1</v>
-      </c>
-      <c r="D510">
-        <v>1</v>
-      </c>
-      <c r="E510">
-        <v>1</v>
-      </c>
-      <c r="F510">
-        <v>1</v>
-      </c>
-      <c r="G510">
-        <v>2</v>
-      </c>
-      <c r="H510">
-        <v>6</v>
-      </c>
-      <c r="I510">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9">
-      <c r="A511" t="s">
-        <v>28</v>
-      </c>
-      <c r="B511">
-        <v>0</v>
-      </c>
-      <c r="C511">
-        <v>1</v>
-      </c>
-      <c r="D511">
-        <v>1</v>
-      </c>
-      <c r="E511">
-        <v>1</v>
-      </c>
-      <c r="F511">
-        <v>2</v>
-      </c>
-      <c r="G511">
-        <v>1</v>
-      </c>
-      <c r="H511">
-        <v>2</v>
-      </c>
-      <c r="I511">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9">
-      <c r="A512" t="s">
-        <v>17</v>
-      </c>
-      <c r="B512">
-        <v>1</v>
-      </c>
-      <c r="C512">
-        <v>1</v>
-      </c>
-      <c r="D512">
-        <v>1</v>
-      </c>
-      <c r="E512">
-        <v>1</v>
-      </c>
-      <c r="F512">
-        <v>3</v>
-      </c>
-      <c r="G512">
-        <v>2</v>
-      </c>
-      <c r="H512">
-        <v>8</v>
-      </c>
-      <c r="I512">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9">
-      <c r="A513" t="s">
-        <v>9</v>
-      </c>
-      <c r="B513">
-        <v>0</v>
-      </c>
-      <c r="C513">
-        <v>1</v>
-      </c>
-      <c r="D513">
-        <v>1</v>
-      </c>
-      <c r="E513">
-        <v>1</v>
-      </c>
-      <c r="F513">
-        <v>2</v>
-      </c>
-      <c r="G513">
-        <v>3</v>
-      </c>
-      <c r="H513">
-        <v>2</v>
-      </c>
-      <c r="I513">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9">
-      <c r="A514" t="s">
-        <v>13</v>
-      </c>
-      <c r="B514">
-        <v>1</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
-      </c>
-      <c r="D514">
-        <v>1</v>
-      </c>
-      <c r="E514">
-        <v>1</v>
-      </c>
-      <c r="F514">
-        <v>1</v>
-      </c>
-      <c r="G514">
-        <v>1</v>
-      </c>
-      <c r="H514">
-        <v>8</v>
-      </c>
-      <c r="I514">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9">
-      <c r="A515" t="s">
-        <v>19</v>
-      </c>
-      <c r="B515">
-        <v>0</v>
-      </c>
-      <c r="C515">
-        <v>1</v>
-      </c>
-      <c r="D515">
-        <v>1</v>
-      </c>
-      <c r="E515">
-        <v>1</v>
-      </c>
-      <c r="F515">
-        <v>1</v>
-      </c>
-      <c r="G515">
-        <v>1</v>
-      </c>
-      <c r="H515">
-        <v>7</v>
-      </c>
-      <c r="I515">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9">
-      <c r="A516" t="s">
-        <v>21</v>
-      </c>
-      <c r="B516">
-        <v>1</v>
-      </c>
-      <c r="C516">
-        <v>1</v>
-      </c>
-      <c r="D516">
-        <v>1</v>
-      </c>
-      <c r="E516">
-        <v>1</v>
-      </c>
-      <c r="F516">
-        <v>1</v>
-      </c>
-      <c r="G516">
-        <v>2</v>
-      </c>
-      <c r="H516">
-        <v>2</v>
-      </c>
-      <c r="I516">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9">
-      <c r="A517" t="s">
-        <v>26</v>
-      </c>
-      <c r="B517">
-        <v>0</v>
-      </c>
-      <c r="C517">
-        <v>1</v>
-      </c>
-      <c r="D517">
-        <v>1</v>
-      </c>
-      <c r="E517">
-        <v>1</v>
-      </c>
-      <c r="F517">
-        <v>2</v>
-      </c>
-      <c r="G517">
-        <v>1</v>
-      </c>
-      <c r="H517">
-        <v>5</v>
-      </c>
-      <c r="I517">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9">
-      <c r="A518" t="s">
-        <v>12</v>
-      </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-      <c r="C518">
-        <v>0</v>
-      </c>
-      <c r="D518">
-        <v>0</v>
-      </c>
-      <c r="E518">
-        <v>0</v>
-      </c>
-      <c r="F518">
-        <v>0</v>
-      </c>
-      <c r="G518">
-        <v>0</v>
-      </c>
-      <c r="H518">
-        <v>5</v>
-      </c>
-      <c r="I518">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9">
-      <c r="A519" t="s">
-        <v>24</v>
-      </c>
-      <c r="B519">
-        <v>0</v>
-      </c>
-      <c r="C519">
-        <v>0</v>
-      </c>
-      <c r="D519">
-        <v>0</v>
-      </c>
-      <c r="E519">
-        <v>0</v>
-      </c>
-      <c r="F519">
-        <v>0</v>
-      </c>
-      <c r="G519">
-        <v>0</v>
-      </c>
-      <c r="H519">
-        <v>5</v>
-      </c>
-      <c r="I519">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9">
-      <c r="A520" t="s">
-        <v>9</v>
-      </c>
-      <c r="B520">
-        <v>1</v>
-      </c>
-      <c r="C520">
-        <v>1</v>
-      </c>
-      <c r="D520">
-        <v>1</v>
-      </c>
-      <c r="E520">
-        <v>1</v>
-      </c>
-      <c r="F520">
-        <v>1</v>
-      </c>
-      <c r="G520">
-        <v>2</v>
-      </c>
-      <c r="H520">
-        <v>12</v>
-      </c>
-      <c r="I520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9">
-      <c r="A521" t="s">
-        <v>15</v>
-      </c>
-      <c r="B521">
-        <v>0</v>
-      </c>
-      <c r="C521">
-        <v>1</v>
-      </c>
-      <c r="D521">
-        <v>1</v>
-      </c>
-      <c r="E521">
-        <v>1</v>
-      </c>
-      <c r="F521">
-        <v>2</v>
-      </c>
-      <c r="G521">
-        <v>1</v>
-      </c>
-      <c r="H521">
-        <v>1</v>
-      </c>
-      <c r="I521">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9">
-      <c r="A522" t="s">
-        <v>20</v>
-      </c>
-      <c r="B522">
-        <v>1</v>
-      </c>
-      <c r="C522">
-        <v>1</v>
-      </c>
-      <c r="D522">
-        <v>0</v>
-      </c>
-      <c r="E522">
-        <v>0</v>
-      </c>
-      <c r="F522">
-        <v>1</v>
-      </c>
-      <c r="G522">
-        <v>0</v>
-      </c>
-      <c r="H522">
-        <v>5</v>
-      </c>
-      <c r="I522">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9">
-      <c r="A523" t="s">
-        <v>18</v>
-      </c>
-      <c r="B523">
-        <v>0</v>
-      </c>
-      <c r="C523">
-        <v>0</v>
-      </c>
-      <c r="D523">
-        <v>1</v>
-      </c>
-      <c r="E523">
-        <v>0</v>
-      </c>
-      <c r="F523">
-        <v>0</v>
-      </c>
-      <c r="G523">
-        <v>1</v>
-      </c>
-      <c r="H523">
-        <v>3</v>
-      </c>
-      <c r="I523">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9">
-      <c r="A524" t="s">
-        <v>22</v>
-      </c>
-      <c r="B524">
-        <v>1</v>
-      </c>
-      <c r="C524">
-        <v>1</v>
-      </c>
-      <c r="D524">
-        <v>0</v>
-      </c>
-      <c r="E524">
-        <v>0</v>
-      </c>
-      <c r="F524">
-        <v>1</v>
-      </c>
-      <c r="G524">
-        <v>0</v>
-      </c>
-      <c r="H524">
-        <v>6</v>
-      </c>
-      <c r="I524">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9">
-      <c r="A525" t="s">
-        <v>17</v>
-      </c>
-      <c r="B525">
-        <v>0</v>
-      </c>
-      <c r="C525">
-        <v>0</v>
-      </c>
-      <c r="D525">
-        <v>1</v>
-      </c>
-      <c r="E525">
-        <v>0</v>
-      </c>
-      <c r="F525">
-        <v>0</v>
-      </c>
-      <c r="G525">
-        <v>1</v>
-      </c>
-      <c r="H525">
-        <v>6</v>
-      </c>
-      <c r="I525">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9">
-      <c r="A526" t="s">
-        <v>14</v>
-      </c>
-      <c r="B526">
-        <v>1</v>
-      </c>
-      <c r="C526">
-        <v>1</v>
-      </c>
-      <c r="D526">
-        <v>0</v>
-      </c>
-      <c r="E526">
-        <v>0</v>
-      </c>
-      <c r="F526">
-        <v>2</v>
-      </c>
-      <c r="G526">
-        <v>0</v>
-      </c>
-      <c r="H526">
-        <v>6</v>
-      </c>
-      <c r="I526">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9">
-      <c r="A527" t="s">
-        <v>16</v>
-      </c>
-      <c r="B527">
-        <v>0</v>
-      </c>
-      <c r="C527">
-        <v>0</v>
-      </c>
-      <c r="D527">
-        <v>1</v>
-      </c>
-      <c r="E527">
-        <v>0</v>
-      </c>
-      <c r="F527">
-        <v>0</v>
-      </c>
-      <c r="G527">
-        <v>2</v>
-      </c>
-      <c r="H527">
-        <v>3</v>
-      </c>
-      <c r="I527">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9">
-      <c r="A528" t="s">
-        <v>11</v>
-      </c>
-      <c r="B528">
-        <v>1</v>
-      </c>
-      <c r="C528">
-        <v>0</v>
-      </c>
-      <c r="D528">
-        <v>1</v>
-      </c>
-      <c r="E528">
-        <v>0</v>
-      </c>
-      <c r="F528">
-        <v>0</v>
-      </c>
-      <c r="G528">
-        <v>2</v>
-      </c>
-      <c r="H528">
-        <v>7</v>
-      </c>
-      <c r="I528">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9">
-      <c r="A529" t="s">
-        <v>21</v>
-      </c>
-      <c r="B529">
-        <v>0</v>
-      </c>
-      <c r="C529">
-        <v>1</v>
-      </c>
-      <c r="D529">
-        <v>0</v>
-      </c>
-      <c r="E529">
-        <v>0</v>
-      </c>
-      <c r="F529">
-        <v>2</v>
-      </c>
-      <c r="G529">
-        <v>0</v>
-      </c>
-      <c r="H529">
-        <v>2</v>
-      </c>
-      <c r="I529">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9">
-      <c r="A530" t="s">
-        <v>24</v>
-      </c>
-      <c r="B530">
-        <v>1</v>
-      </c>
-      <c r="C530">
-        <v>0</v>
-      </c>
-      <c r="D530">
-        <v>1</v>
-      </c>
-      <c r="E530">
-        <v>0</v>
-      </c>
-      <c r="F530">
-        <v>0</v>
-      </c>
-      <c r="G530">
-        <v>2</v>
-      </c>
-      <c r="H530">
-        <v>9</v>
-      </c>
-      <c r="I530">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9">
-      <c r="A531" t="s">
-        <v>25</v>
-      </c>
-      <c r="B531">
-        <v>0</v>
-      </c>
-      <c r="C531">
-        <v>1</v>
-      </c>
-      <c r="D531">
-        <v>0</v>
-      </c>
-      <c r="E531">
-        <v>0</v>
-      </c>
-      <c r="F531">
-        <v>2</v>
-      </c>
-      <c r="G531">
-        <v>0</v>
-      </c>
-      <c r="H531">
-        <v>3</v>
-      </c>
-      <c r="I531">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9">
-      <c r="A532" t="s">
-        <v>28</v>
-      </c>
-      <c r="B532">
-        <v>1</v>
-      </c>
-      <c r="C532">
-        <v>1</v>
-      </c>
-      <c r="D532">
-        <v>1</v>
-      </c>
-      <c r="E532">
-        <v>1</v>
-      </c>
-      <c r="F532">
-        <v>1</v>
-      </c>
-      <c r="G532">
-        <v>3</v>
-      </c>
-      <c r="H532">
-        <v>5</v>
-      </c>
-      <c r="I532">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9">
-      <c r="A533" t="s">
-        <v>19</v>
-      </c>
-      <c r="B533">
-        <v>0</v>
-      </c>
-      <c r="C533">
-        <v>1</v>
-      </c>
-      <c r="D533">
-        <v>1</v>
-      </c>
-      <c r="E533">
-        <v>1</v>
-      </c>
-      <c r="F533">
-        <v>3</v>
-      </c>
-      <c r="G533">
-        <v>1</v>
-      </c>
-      <c r="H533">
-        <v>4</v>
-      </c>
-      <c r="I533">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9">
-      <c r="A534" t="s">
-        <v>10</v>
-      </c>
-      <c r="B534">
-        <v>1</v>
-      </c>
-      <c r="C534">
-        <v>1</v>
-      </c>
-      <c r="D534">
-        <v>1</v>
-      </c>
-      <c r="E534">
-        <v>1</v>
-      </c>
-      <c r="F534">
-        <v>3</v>
-      </c>
-      <c r="G534">
-        <v>3</v>
-      </c>
-      <c r="H534">
-        <v>15</v>
-      </c>
-      <c r="I534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9">
-      <c r="A535" t="s">
-        <v>23</v>
-      </c>
-      <c r="B535">
-        <v>0</v>
-      </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-      <c r="D535">
-        <v>1</v>
-      </c>
-      <c r="E535">
-        <v>1</v>
-      </c>
-      <c r="F535">
-        <v>3</v>
-      </c>
-      <c r="G535">
-        <v>3</v>
-      </c>
-      <c r="H535">
-        <v>1</v>
-      </c>
-      <c r="I535">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9">
-      <c r="A536" t="s">
-        <v>12</v>
-      </c>
-      <c r="B536">
-        <v>1</v>
-      </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
-      <c r="D536">
-        <v>1</v>
-      </c>
-      <c r="E536">
-        <v>1</v>
-      </c>
-      <c r="F536">
-        <v>1</v>
-      </c>
-      <c r="G536">
-        <v>1</v>
-      </c>
-      <c r="H536">
-        <v>13</v>
-      </c>
-      <c r="I536">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9">
-      <c r="A537" t="s">
-        <v>14</v>
-      </c>
-      <c r="B537">
-        <v>0</v>
-      </c>
-      <c r="C537">
-        <v>1</v>
-      </c>
-      <c r="D537">
-        <v>1</v>
-      </c>
-      <c r="E537">
-        <v>1</v>
-      </c>
-      <c r="F537">
-        <v>1</v>
-      </c>
-      <c r="G537">
-        <v>1</v>
-      </c>
-      <c r="H537">
-        <v>2</v>
-      </c>
-      <c r="I537">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9">
-      <c r="A538" t="s">
-        <v>20</v>
-      </c>
-      <c r="B538">
-        <v>1</v>
-      </c>
-      <c r="C538">
-        <v>1</v>
-      </c>
-      <c r="D538">
-        <v>0</v>
-      </c>
-      <c r="E538">
-        <v>0</v>
-      </c>
-      <c r="F538">
-        <v>2</v>
-      </c>
-      <c r="G538">
-        <v>0</v>
-      </c>
-      <c r="H538">
-        <v>7</v>
-      </c>
-      <c r="I538">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9">
-      <c r="A539" t="s">
-        <v>17</v>
-      </c>
-      <c r="B539">
-        <v>0</v>
-      </c>
-      <c r="C539">
-        <v>0</v>
-      </c>
-      <c r="D539">
-        <v>1</v>
-      </c>
-      <c r="E539">
-        <v>0</v>
-      </c>
-      <c r="F539">
-        <v>0</v>
-      </c>
-      <c r="G539">
-        <v>2</v>
-      </c>
-      <c r="H539">
-        <v>2</v>
-      </c>
-      <c r="I539">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9">
-      <c r="A540" t="s">
-        <v>16</v>
-      </c>
-      <c r="B540">
-        <v>1</v>
-      </c>
-      <c r="C540">
-        <v>1</v>
-      </c>
-      <c r="D540">
-        <v>0</v>
-      </c>
-      <c r="E540">
-        <v>0</v>
-      </c>
-      <c r="F540">
-        <v>3</v>
-      </c>
-      <c r="G540">
-        <v>0</v>
-      </c>
-      <c r="H540">
-        <v>6</v>
-      </c>
-      <c r="I540">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9">
-      <c r="A541" t="s">
-        <v>27</v>
-      </c>
-      <c r="B541">
-        <v>0</v>
-      </c>
-      <c r="C541">
-        <v>0</v>
-      </c>
-      <c r="D541">
-        <v>1</v>
-      </c>
-      <c r="E541">
-        <v>0</v>
-      </c>
-      <c r="F541">
-        <v>0</v>
-      </c>
-      <c r="G541">
-        <v>3</v>
-      </c>
-      <c r="H541">
-        <v>3</v>
-      </c>
-      <c r="I541">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9">
-      <c r="A542" t="s">
-        <v>15</v>
-      </c>
-      <c r="B542">
-        <v>1</v>
-      </c>
-      <c r="C542">
-        <v>1</v>
-      </c>
-      <c r="D542">
-        <v>1</v>
-      </c>
-      <c r="E542">
-        <v>1</v>
-      </c>
-      <c r="F542">
-        <v>1</v>
-      </c>
-      <c r="G542">
-        <v>1</v>
-      </c>
-      <c r="H542">
-        <v>6</v>
-      </c>
-      <c r="I542">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9">
-      <c r="A543" t="s">
-        <v>13</v>
-      </c>
-      <c r="B543">
-        <v>0</v>
-      </c>
-      <c r="C543">
-        <v>1</v>
-      </c>
-      <c r="D543">
-        <v>1</v>
-      </c>
-      <c r="E543">
-        <v>1</v>
-      </c>
-      <c r="F543">
-        <v>1</v>
-      </c>
-      <c r="G543">
-        <v>1</v>
-      </c>
-      <c r="H543">
-        <v>3</v>
-      </c>
-      <c r="I543">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9">
-      <c r="A544" t="s">
-        <v>18</v>
-      </c>
-      <c r="B544">
-        <v>1</v>
-      </c>
-      <c r="C544">
-        <v>1</v>
-      </c>
-      <c r="D544">
-        <v>1</v>
-      </c>
-      <c r="E544">
-        <v>1</v>
-      </c>
-      <c r="F544">
-        <v>7</v>
-      </c>
-      <c r="G544">
-        <v>1</v>
-      </c>
-      <c r="H544">
-        <v>3</v>
-      </c>
-      <c r="I544">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9">
-      <c r="A545" t="s">
-        <v>28</v>
-      </c>
-      <c r="B545">
-        <v>0</v>
-      </c>
-      <c r="C545">
-        <v>1</v>
-      </c>
-      <c r="D545">
-        <v>1</v>
-      </c>
-      <c r="E545">
-        <v>1</v>
-      </c>
-      <c r="F545">
-        <v>1</v>
-      </c>
-      <c r="G545">
-        <v>7</v>
-      </c>
-      <c r="H545">
-        <v>6</v>
-      </c>
-      <c r="I545">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9">
-      <c r="A546" t="s">
-        <v>21</v>
-      </c>
-      <c r="B546">
-        <v>1</v>
-      </c>
-      <c r="C546">
-        <v>0</v>
-      </c>
-      <c r="D546">
-        <v>1</v>
-      </c>
-      <c r="E546">
-        <v>0</v>
-      </c>
-      <c r="F546">
-        <v>0</v>
-      </c>
-      <c r="G546">
-        <v>1</v>
-      </c>
-      <c r="H546">
-        <v>1</v>
-      </c>
-      <c r="I546">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9">
-      <c r="A547" t="s">
-        <v>24</v>
-      </c>
-      <c r="B547">
-        <v>0</v>
-      </c>
-      <c r="C547">
-        <v>1</v>
-      </c>
-      <c r="D547">
-        <v>0</v>
-      </c>
-      <c r="E547">
-        <v>0</v>
-      </c>
-      <c r="F547">
-        <v>1</v>
-      </c>
-      <c r="G547">
-        <v>0</v>
-      </c>
-      <c r="H547">
-        <v>7</v>
-      </c>
-      <c r="I547">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9">
-      <c r="A548" t="s">
-        <v>25</v>
-      </c>
-      <c r="B548">
-        <v>1</v>
-      </c>
-      <c r="C548">
-        <v>1</v>
-      </c>
-      <c r="D548">
-        <v>0</v>
-      </c>
-      <c r="E548">
-        <v>0</v>
-      </c>
-      <c r="F548">
-        <v>1</v>
-      </c>
-      <c r="G548">
-        <v>0</v>
-      </c>
-      <c r="H548">
-        <v>7</v>
-      </c>
-      <c r="I548">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9">
-      <c r="A549" t="s">
-        <v>22</v>
-      </c>
-      <c r="B549">
-        <v>0</v>
-      </c>
-      <c r="C549">
-        <v>0</v>
-      </c>
-      <c r="D549">
-        <v>1</v>
-      </c>
-      <c r="E549">
-        <v>0</v>
-      </c>
-      <c r="F549">
-        <v>0</v>
-      </c>
-      <c r="G549">
-        <v>1</v>
-      </c>
-      <c r="H549">
-        <v>8</v>
-      </c>
-      <c r="I549">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9">
-      <c r="A550" t="s">
-        <v>19</v>
-      </c>
-      <c r="B550">
-        <v>1</v>
-      </c>
-      <c r="C550">
-        <v>1</v>
-      </c>
-      <c r="D550">
-        <v>0</v>
-      </c>
-      <c r="E550">
-        <v>0</v>
-      </c>
-      <c r="F550">
-        <v>1</v>
-      </c>
-      <c r="G550">
-        <v>0</v>
-      </c>
-      <c r="H550">
-        <v>7</v>
-      </c>
-      <c r="I550">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9">
-      <c r="A551" t="s">
-        <v>10</v>
-      </c>
-      <c r="B551">
-        <v>0</v>
-      </c>
-      <c r="C551">
-        <v>0</v>
-      </c>
-      <c r="D551">
-        <v>1</v>
-      </c>
-      <c r="E551">
-        <v>0</v>
-      </c>
-      <c r="F551">
-        <v>0</v>
-      </c>
-      <c r="G551">
-        <v>1</v>
-      </c>
-      <c r="H551">
-        <v>3</v>
-      </c>
-      <c r="I551">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9">
-      <c r="A552" t="s">
-        <v>23</v>
-      </c>
-      <c r="B552">
-        <v>1</v>
-      </c>
-      <c r="C552">
-        <v>1</v>
-      </c>
-      <c r="D552">
-        <v>1</v>
-      </c>
-      <c r="E552">
-        <v>1</v>
-      </c>
-      <c r="F552">
-        <v>1</v>
-      </c>
-      <c r="G552">
-        <v>1</v>
-      </c>
-      <c r="H552">
-        <v>4</v>
-      </c>
-      <c r="I552">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9">
-      <c r="A553" t="s">
-        <v>9</v>
-      </c>
-      <c r="B553">
-        <v>0</v>
-      </c>
-      <c r="C553">
-        <v>1</v>
-      </c>
-      <c r="D553">
-        <v>1</v>
-      </c>
-      <c r="E553">
-        <v>1</v>
-      </c>
-      <c r="F553">
-        <v>1</v>
-      </c>
-      <c r="G553">
-        <v>1</v>
-      </c>
-      <c r="H553">
-        <v>4</v>
-      </c>
-      <c r="I553">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9">
-      <c r="A554" t="s">
-        <v>26</v>
-      </c>
-      <c r="B554">
-        <v>1</v>
-      </c>
-      <c r="C554">
-        <v>0</v>
-      </c>
-      <c r="D554">
-        <v>1</v>
-      </c>
-      <c r="E554">
-        <v>0</v>
-      </c>
-      <c r="F554">
-        <v>0</v>
-      </c>
-      <c r="G554">
-        <v>2</v>
-      </c>
-      <c r="H554">
-        <v>3</v>
-      </c>
-      <c r="I554">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9">
-      <c r="A555" t="s">
-        <v>11</v>
-      </c>
-      <c r="B555">
-        <v>0</v>
-      </c>
-      <c r="C555">
-        <v>1</v>
-      </c>
-      <c r="D555">
-        <v>0</v>
-      </c>
-      <c r="E555">
-        <v>0</v>
-      </c>
-      <c r="F555">
-        <v>2</v>
-      </c>
-      <c r="G555">
-        <v>0</v>
-      </c>
-      <c r="H555">
-        <v>6</v>
-      </c>
-      <c r="I555">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16573,7 +12513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20115,1196 +16055,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>2</v>
-      </c>
-      <c r="C209">
-        <v>19</v>
-      </c>
-      <c r="D209" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210">
-        <v>0</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210">
-        <v>10</v>
-      </c>
-      <c r="D210" t="s">
-        <v>14</v>
-      </c>
-      <c r="E210" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211">
-        <v>3</v>
-      </c>
-      <c r="C211">
-        <v>18</v>
-      </c>
-      <c r="D211" t="s">
-        <v>15</v>
-      </c>
-      <c r="E211" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212">
-        <v>0</v>
-      </c>
-      <c r="B212">
-        <v>2</v>
-      </c>
-      <c r="C212">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s">
-        <v>27</v>
-      </c>
-      <c r="E212" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213">
-        <v>0</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213">
-        <v>12</v>
-      </c>
-      <c r="D213" t="s">
-        <v>10</v>
-      </c>
-      <c r="E213" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214">
-        <v>0</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="C214">
-        <v>13</v>
-      </c>
-      <c r="D214" t="s">
-        <v>23</v>
-      </c>
-      <c r="E214" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215">
-        <v>0</v>
-      </c>
-      <c r="B215">
-        <v>2</v>
-      </c>
-      <c r="C215">
-        <v>8</v>
-      </c>
-      <c r="D215" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216">
-        <v>0</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="C216">
-        <v>13</v>
-      </c>
-      <c r="D216" t="s">
-        <v>24</v>
-      </c>
-      <c r="E216" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217">
-        <v>2</v>
-      </c>
-      <c r="C217">
-        <v>6</v>
-      </c>
-      <c r="D217" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218">
-        <v>3</v>
-      </c>
-      <c r="C218">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s">
-        <v>18</v>
-      </c>
-      <c r="E218" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219">
-        <v>0</v>
-      </c>
-      <c r="B219">
-        <v>3</v>
-      </c>
-      <c r="C219">
-        <v>10</v>
-      </c>
-      <c r="D219" t="s">
-        <v>25</v>
-      </c>
-      <c r="E219" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220">
-        <v>0</v>
-      </c>
-      <c r="B220">
-        <v>3</v>
-      </c>
-      <c r="C220">
-        <v>17</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221">
-        <v>3</v>
-      </c>
-      <c r="C221">
-        <v>9</v>
-      </c>
-      <c r="D221" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>6</v>
-      </c>
-      <c r="C222">
-        <v>9</v>
-      </c>
-      <c r="D222" t="s">
-        <v>26</v>
-      </c>
-      <c r="E222" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223">
-        <v>0</v>
-      </c>
-      <c r="B223">
-        <v>2</v>
-      </c>
-      <c r="C223">
-        <v>6</v>
-      </c>
-      <c r="D223" t="s">
-        <v>19</v>
-      </c>
-      <c r="E223" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224">
-        <v>4</v>
-      </c>
-      <c r="C224">
-        <v>10</v>
-      </c>
-      <c r="D224" t="s">
-        <v>12</v>
-      </c>
-      <c r="E224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225">
-        <v>0</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225">
-        <v>9</v>
-      </c>
-      <c r="D225" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226">
-        <v>6</v>
-      </c>
-      <c r="C226">
-        <v>15</v>
-      </c>
-      <c r="D226" t="s">
-        <v>22</v>
-      </c>
-      <c r="E226" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227">
-        <v>0</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227">
-        <v>8</v>
-      </c>
-      <c r="D227" t="s">
-        <v>21</v>
-      </c>
-      <c r="E227" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228">
-        <v>3</v>
-      </c>
-      <c r="C228">
-        <v>14</v>
-      </c>
-      <c r="D228" t="s">
-        <v>20</v>
-      </c>
-      <c r="E228" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229">
-        <v>8</v>
-      </c>
-      <c r="C229">
-        <v>10</v>
-      </c>
-      <c r="D229" t="s">
-        <v>23</v>
-      </c>
-      <c r="E229" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230">
-        <v>0</v>
-      </c>
-      <c r="B230">
-        <v>2</v>
-      </c>
-      <c r="C230">
-        <v>16</v>
-      </c>
-      <c r="D230" t="s">
-        <v>9</v>
-      </c>
-      <c r="E230" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231">
-        <v>0</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-      <c r="C231">
-        <v>5</v>
-      </c>
-      <c r="D231" t="s">
-        <v>14</v>
-      </c>
-      <c r="E231" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232">
-        <v>0</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232">
-        <v>10</v>
-      </c>
-      <c r="D232" t="s">
-        <v>10</v>
-      </c>
-      <c r="E232" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233">
-        <v>3</v>
-      </c>
-      <c r="C233">
-        <v>9</v>
-      </c>
-      <c r="D233" t="s">
-        <v>16</v>
-      </c>
-      <c r="E233" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234">
-        <v>1</v>
-      </c>
-      <c r="B234">
-        <v>6</v>
-      </c>
-      <c r="C234">
-        <v>6</v>
-      </c>
-      <c r="D234" t="s">
-        <v>22</v>
-      </c>
-      <c r="E234" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235">
-        <v>3</v>
-      </c>
-      <c r="C235">
-        <v>12</v>
-      </c>
-      <c r="D235" t="s">
-        <v>13</v>
-      </c>
-      <c r="E235" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236">
-        <v>0</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236">
-        <v>13</v>
-      </c>
-      <c r="D236" t="s">
-        <v>27</v>
-      </c>
-      <c r="E236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237">
-        <v>0</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237">
-        <v>7</v>
-      </c>
-      <c r="D237" t="s">
-        <v>23</v>
-      </c>
-      <c r="E237" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238">
-        <v>0</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238">
-        <v>9</v>
-      </c>
-      <c r="D238" t="s">
-        <v>21</v>
-      </c>
-      <c r="E238" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239">
-        <v>0</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s">
-        <v>9</v>
-      </c>
-      <c r="E239" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240">
-        <v>3</v>
-      </c>
-      <c r="C240">
-        <v>7</v>
-      </c>
-      <c r="D240" t="s">
-        <v>16</v>
-      </c>
-      <c r="E240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241">
-        <v>2</v>
-      </c>
-      <c r="C241">
-        <v>10</v>
-      </c>
-      <c r="D241" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242">
-        <v>0</v>
-      </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-      <c r="C242">
-        <v>14</v>
-      </c>
-      <c r="D242" t="s">
-        <v>25</v>
-      </c>
-      <c r="E242" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243">
-        <v>0</v>
-      </c>
-      <c r="B243">
-        <v>3</v>
-      </c>
-      <c r="C243">
-        <v>7</v>
-      </c>
-      <c r="D243" t="s">
-        <v>12</v>
-      </c>
-      <c r="E243" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244">
-        <v>3</v>
-      </c>
-      <c r="C244">
-        <v>15</v>
-      </c>
-      <c r="D244" t="s">
-        <v>16</v>
-      </c>
-      <c r="E244" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245">
-        <v>0</v>
-      </c>
-      <c r="B245">
-        <v>2</v>
-      </c>
-      <c r="C245">
-        <v>8</v>
-      </c>
-      <c r="D245" t="s">
-        <v>18</v>
-      </c>
-      <c r="E245" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246">
-        <v>0</v>
-      </c>
-      <c r="B246">
-        <v>2</v>
-      </c>
-      <c r="C246">
-        <v>13</v>
-      </c>
-      <c r="D246" t="s">
-        <v>26</v>
-      </c>
-      <c r="E246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247">
-        <v>2</v>
-      </c>
-      <c r="C247">
-        <v>16</v>
-      </c>
-      <c r="D247" t="s">
-        <v>24</v>
-      </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248">
-        <v>5</v>
-      </c>
-      <c r="C248">
-        <v>16</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="E248" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249">
-        <v>3</v>
-      </c>
-      <c r="C249">
-        <v>10</v>
-      </c>
-      <c r="D249" t="s">
-        <v>19</v>
-      </c>
-      <c r="E249" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250">
-        <v>2</v>
-      </c>
-      <c r="C250">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s">
-        <v>15</v>
-      </c>
-      <c r="E250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251">
-        <v>10</v>
-      </c>
-      <c r="C251">
-        <v>10</v>
-      </c>
-      <c r="D251" t="s">
-        <v>14</v>
-      </c>
-      <c r="E251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252">
-        <v>0</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-      <c r="C252">
-        <v>10</v>
-      </c>
-      <c r="D252" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="B253">
-        <v>2</v>
-      </c>
-      <c r="C253">
-        <v>10</v>
-      </c>
-      <c r="D253" t="s">
-        <v>23</v>
-      </c>
-      <c r="E253" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254">
-        <v>5</v>
-      </c>
-      <c r="C254">
-        <v>5</v>
-      </c>
-      <c r="D254" t="s">
-        <v>18</v>
-      </c>
-      <c r="E254" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255">
-        <v>0</v>
-      </c>
-      <c r="B255">
-        <v>2</v>
-      </c>
-      <c r="C255">
-        <v>5</v>
-      </c>
-      <c r="D255" t="s">
-        <v>10</v>
-      </c>
-      <c r="E255" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256">
-        <v>3</v>
-      </c>
-      <c r="C256">
-        <v>8</v>
-      </c>
-      <c r="D256" t="s">
-        <v>11</v>
-      </c>
-      <c r="E256" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257">
-        <v>5</v>
-      </c>
-      <c r="C257">
-        <v>10</v>
-      </c>
-      <c r="D257" t="s">
-        <v>17</v>
-      </c>
-      <c r="E257" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="B258">
-        <v>2</v>
-      </c>
-      <c r="C258">
-        <v>15</v>
-      </c>
-      <c r="D258" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259">
-        <v>3</v>
-      </c>
-      <c r="C259">
-        <v>7</v>
-      </c>
-      <c r="D259" t="s">
-        <v>21</v>
-      </c>
-      <c r="E259" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260">
-        <v>0</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-      <c r="C260">
-        <v>10</v>
-      </c>
-      <c r="D260" t="s">
-        <v>12</v>
-      </c>
-      <c r="E260" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261">
-        <v>3</v>
-      </c>
-      <c r="C261">
-        <v>13</v>
-      </c>
-      <c r="D261" t="s">
-        <v>9</v>
-      </c>
-      <c r="E261" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262">
-        <v>0</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262">
-        <v>8</v>
-      </c>
-      <c r="D262" t="s">
-        <v>20</v>
-      </c>
-      <c r="E262" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263">
-        <v>0</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263">
-        <v>12</v>
-      </c>
-      <c r="D263" t="s">
-        <v>22</v>
-      </c>
-      <c r="E263" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264">
-        <v>0</v>
-      </c>
-      <c r="B264">
-        <v>2</v>
-      </c>
-      <c r="C264">
-        <v>9</v>
-      </c>
-      <c r="D264" t="s">
-        <v>14</v>
-      </c>
-      <c r="E264" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265">
-        <v>0</v>
-      </c>
-      <c r="B265">
-        <v>2</v>
-      </c>
-      <c r="C265">
-        <v>9</v>
-      </c>
-      <c r="D265" t="s">
-        <v>11</v>
-      </c>
-      <c r="E265" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266">
-        <v>0</v>
-      </c>
-      <c r="B266">
-        <v>2</v>
-      </c>
-      <c r="C266">
-        <v>12</v>
-      </c>
-      <c r="D266" t="s">
-        <v>24</v>
-      </c>
-      <c r="E266" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267">
-        <v>4</v>
-      </c>
-      <c r="C267">
-        <v>9</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268">
-        <v>6</v>
-      </c>
-      <c r="C268">
-        <v>16</v>
-      </c>
-      <c r="D268" t="s">
-        <v>10</v>
-      </c>
-      <c r="E268" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269">
-        <v>2</v>
-      </c>
-      <c r="C269">
-        <v>15</v>
-      </c>
-      <c r="D269" t="s">
-        <v>12</v>
-      </c>
-      <c r="E269" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270">
-        <v>0</v>
-      </c>
-      <c r="B270">
-        <v>2</v>
-      </c>
-      <c r="C270">
-        <v>9</v>
-      </c>
-      <c r="D270" t="s">
-        <v>20</v>
-      </c>
-      <c r="E270" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271">
-        <v>0</v>
-      </c>
-      <c r="B271">
-        <v>3</v>
-      </c>
-      <c r="C271">
-        <v>9</v>
-      </c>
-      <c r="D271" t="s">
-        <v>16</v>
-      </c>
-      <c r="E271" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="B272">
-        <v>2</v>
-      </c>
-      <c r="C272">
-        <v>9</v>
-      </c>
-      <c r="D272" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273">
-        <v>1</v>
-      </c>
-      <c r="B273">
-        <v>8</v>
-      </c>
-      <c r="C273">
-        <v>9</v>
-      </c>
-      <c r="D273" t="s">
-        <v>18</v>
-      </c>
-      <c r="E273" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274">
-        <v>0</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="C274">
-        <v>8</v>
-      </c>
-      <c r="D274" t="s">
-        <v>21</v>
-      </c>
-      <c r="E274" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275">
-        <v>0</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="C275">
-        <v>15</v>
-      </c>
-      <c r="D275" t="s">
-        <v>25</v>
-      </c>
-      <c r="E275" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276">
-        <v>0</v>
-      </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-      <c r="C276">
-        <v>10</v>
-      </c>
-      <c r="D276" t="s">
-        <v>19</v>
-      </c>
-      <c r="E276" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277">
-        <v>2</v>
-      </c>
-      <c r="C277">
-        <v>8</v>
-      </c>
-      <c r="D277" t="s">
-        <v>23</v>
-      </c>
-      <c r="E277" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278">
-        <v>0</v>
-      </c>
-      <c r="B278">
-        <v>2</v>
-      </c>
-      <c r="C278">
-        <v>9</v>
-      </c>
-      <c r="D278" t="s">
-        <v>26</v>
-      </c>
-      <c r="E278" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12506,6 +12506,4588 @@
         <v>6</v>
       </c>
     </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>12</v>
+      </c>
+      <c r="I416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>7</v>
+      </c>
+      <c r="I417">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>14</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>5</v>
+      </c>
+      <c r="I418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>5</v>
+      </c>
+      <c r="I419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>15</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>2</v>
+      </c>
+      <c r="H420">
+        <v>12</v>
+      </c>
+      <c r="I420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>25</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>6</v>
+      </c>
+      <c r="I421">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>27</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>2</v>
+      </c>
+      <c r="I422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>2</v>
+      </c>
+      <c r="H423">
+        <v>9</v>
+      </c>
+      <c r="I423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>5</v>
+      </c>
+      <c r="I424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>7</v>
+      </c>
+      <c r="I425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>23</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>2</v>
+      </c>
+      <c r="I426">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>11</v>
+      </c>
+      <c r="I427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>9</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>2</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>3</v>
+      </c>
+      <c r="I428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>28</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>2</v>
+      </c>
+      <c r="H429">
+        <v>5</v>
+      </c>
+      <c r="I429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>24</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>8</v>
+      </c>
+      <c r="I430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>19</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>5</v>
+      </c>
+      <c r="I431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="s">
+        <v>20</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>6</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="s">
+        <v>22</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434">
+        <v>2</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>4</v>
+      </c>
+      <c r="I434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="s">
+        <v>16</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>7</v>
+      </c>
+      <c r="I435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="s">
+        <v>25</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>3</v>
+      </c>
+      <c r="H436">
+        <v>8</v>
+      </c>
+      <c r="I436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="s">
+        <v>13</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>3</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>2</v>
+      </c>
+      <c r="I437">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="s">
+        <v>28</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>3</v>
+      </c>
+      <c r="H438">
+        <v>8</v>
+      </c>
+      <c r="I438">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="s">
+        <v>24</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>3</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>9</v>
+      </c>
+      <c r="I439">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>2</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>6</v>
+      </c>
+      <c r="I440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="s">
+        <v>23</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>2</v>
+      </c>
+      <c r="H441">
+        <v>3</v>
+      </c>
+      <c r="I441">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="s">
+        <v>26</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442">
+        <v>2</v>
+      </c>
+      <c r="G442">
+        <v>4</v>
+      </c>
+      <c r="H442">
+        <v>7</v>
+      </c>
+      <c r="I442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="s">
+        <v>20</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>4</v>
+      </c>
+      <c r="G443">
+        <v>2</v>
+      </c>
+      <c r="H443">
+        <v>2</v>
+      </c>
+      <c r="I443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="s">
+        <v>19</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>2</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>5</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="s">
+        <v>27</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>2</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446">
+        <v>2</v>
+      </c>
+      <c r="G446">
+        <v>2</v>
+      </c>
+      <c r="H446">
+        <v>9</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+      <c r="F447">
+        <v>2</v>
+      </c>
+      <c r="G447">
+        <v>2</v>
+      </c>
+      <c r="H447">
+        <v>1</v>
+      </c>
+      <c r="I447">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="s">
+        <v>11</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>6</v>
+      </c>
+      <c r="I448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="s">
+        <v>14</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>3</v>
+      </c>
+      <c r="I449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="s">
+        <v>22</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>4</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450">
+        <v>4</v>
+      </c>
+      <c r="I450">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
+      </c>
+      <c r="G451">
+        <v>4</v>
+      </c>
+      <c r="H451">
+        <v>11</v>
+      </c>
+      <c r="I451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="s">
+        <v>21</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>5</v>
+      </c>
+      <c r="I452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="s">
+        <v>15</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>3</v>
+      </c>
+      <c r="I453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="s">
+        <v>20</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>2</v>
+      </c>
+      <c r="H454">
+        <v>6</v>
+      </c>
+      <c r="I454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="s">
+        <v>28</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>2</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>8</v>
+      </c>
+      <c r="I455">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="s">
+        <v>23</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456">
+        <v>4</v>
+      </c>
+      <c r="G456">
+        <v>4</v>
+      </c>
+      <c r="H456">
+        <v>6</v>
+      </c>
+      <c r="I456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="s">
+        <v>27</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>4</v>
+      </c>
+      <c r="G457">
+        <v>4</v>
+      </c>
+      <c r="H457">
+        <v>4</v>
+      </c>
+      <c r="I457">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="s">
+        <v>9</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>2</v>
+      </c>
+      <c r="H458">
+        <v>2</v>
+      </c>
+      <c r="I458">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>19</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>14</v>
+      </c>
+      <c r="I459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>14</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>3</v>
+      </c>
+      <c r="I460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>2</v>
+      </c>
+      <c r="I461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>7</v>
+      </c>
+      <c r="I462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>24</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>3</v>
+      </c>
+      <c r="I463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>16</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>2</v>
+      </c>
+      <c r="H464">
+        <v>9</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>17</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
+      <c r="F466">
+        <v>5</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>6</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>26</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+      <c r="G467">
+        <v>5</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>13</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468">
+        <v>2</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>7</v>
+      </c>
+      <c r="I468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>5</v>
+      </c>
+      <c r="I469">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>27</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>11</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>11</v>
+      </c>
+      <c r="I471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>6</v>
+      </c>
+      <c r="I472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>15</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+      <c r="I473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>21</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>6</v>
+      </c>
+      <c r="I474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>3</v>
+      </c>
+      <c r="I475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>9</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476">
+        <v>3</v>
+      </c>
+      <c r="I476">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>22</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>8</v>
+      </c>
+      <c r="I477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>16</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478">
+        <v>2</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>4</v>
+      </c>
+      <c r="I478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>26</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <v>2</v>
+      </c>
+      <c r="H479">
+        <v>3</v>
+      </c>
+      <c r="I479">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>3</v>
+      </c>
+      <c r="I480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>27</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>7</v>
+      </c>
+      <c r="I481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>25</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>12</v>
+      </c>
+      <c r="I482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>20</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>2</v>
+      </c>
+      <c r="I483">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>3</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>7</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>3</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>16</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>11</v>
+      </c>
+      <c r="I486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>23</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="G487">
+        <v>2</v>
+      </c>
+      <c r="H487">
+        <v>4</v>
+      </c>
+      <c r="I487">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>2</v>
+      </c>
+      <c r="H488">
+        <v>4</v>
+      </c>
+      <c r="I488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>21</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>4</v>
+      </c>
+      <c r="I489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>26</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>2</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>2</v>
+      </c>
+      <c r="I490">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>13</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>2</v>
+      </c>
+      <c r="H491">
+        <v>11</v>
+      </c>
+      <c r="I491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>24</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>9</v>
+      </c>
+      <c r="I492">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>9</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>7</v>
+      </c>
+      <c r="I493">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>28</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>4</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>5</v>
+      </c>
+      <c r="I494">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>22</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>4</v>
+      </c>
+      <c r="H495">
+        <v>11</v>
+      </c>
+      <c r="I495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>19</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>2</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>6</v>
+      </c>
+      <c r="I496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <v>2</v>
+      </c>
+      <c r="H497">
+        <v>4</v>
+      </c>
+      <c r="I497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>15</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>8</v>
+      </c>
+      <c r="I498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>14</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>3</v>
+      </c>
+      <c r="I499">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>14</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>4</v>
+      </c>
+      <c r="G500">
+        <v>6</v>
+      </c>
+      <c r="H500">
+        <v>6</v>
+      </c>
+      <c r="I500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>20</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501">
+        <v>6</v>
+      </c>
+      <c r="G501">
+        <v>4</v>
+      </c>
+      <c r="H501">
+        <v>4</v>
+      </c>
+      <c r="I501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>22</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502">
+        <v>7</v>
+      </c>
+      <c r="I502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>16</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>3</v>
+      </c>
+      <c r="I503">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>23</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>2</v>
+      </c>
+      <c r="I504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>25</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>8</v>
+      </c>
+      <c r="I505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>18</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>3</v>
+      </c>
+      <c r="G506">
+        <v>2</v>
+      </c>
+      <c r="H506">
+        <v>4</v>
+      </c>
+      <c r="I506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>27</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>2</v>
+      </c>
+      <c r="G507">
+        <v>3</v>
+      </c>
+      <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>10</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>2</v>
+      </c>
+      <c r="H508">
+        <v>3</v>
+      </c>
+      <c r="I508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>15</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+      <c r="F509">
+        <v>2</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>2</v>
+      </c>
+      <c r="I509">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+      <c r="G510">
+        <v>2</v>
+      </c>
+      <c r="H510">
+        <v>6</v>
+      </c>
+      <c r="I510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>28</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>2</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>2</v>
+      </c>
+      <c r="I511">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>17</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>3</v>
+      </c>
+      <c r="G512">
+        <v>2</v>
+      </c>
+      <c r="H512">
+        <v>8</v>
+      </c>
+      <c r="I512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+      <c r="G513">
+        <v>3</v>
+      </c>
+      <c r="H513">
+        <v>2</v>
+      </c>
+      <c r="I513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>13</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>8</v>
+      </c>
+      <c r="I514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>19</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>7</v>
+      </c>
+      <c r="I515">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>21</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+      <c r="G516">
+        <v>2</v>
+      </c>
+      <c r="H516">
+        <v>2</v>
+      </c>
+      <c r="I516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>26</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
+      <c r="F517">
+        <v>2</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>5</v>
+      </c>
+      <c r="I517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>5</v>
+      </c>
+      <c r="I518">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>24</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>5</v>
+      </c>
+      <c r="I519">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>2</v>
+      </c>
+      <c r="H520">
+        <v>12</v>
+      </c>
+      <c r="I520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>15</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+      <c r="I521">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>20</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>5</v>
+      </c>
+      <c r="I522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>3</v>
+      </c>
+      <c r="I523">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>22</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>6</v>
+      </c>
+      <c r="I524">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>17</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>6</v>
+      </c>
+      <c r="I525">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>14</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>2</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>6</v>
+      </c>
+      <c r="I526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>16</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>2</v>
+      </c>
+      <c r="H527">
+        <v>3</v>
+      </c>
+      <c r="I527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>11</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>2</v>
+      </c>
+      <c r="H528">
+        <v>7</v>
+      </c>
+      <c r="I528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>21</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>2</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+      <c r="H529">
+        <v>2</v>
+      </c>
+      <c r="I529">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>24</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>2</v>
+      </c>
+      <c r="H530">
+        <v>9</v>
+      </c>
+      <c r="I530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>2</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+      <c r="H531">
+        <v>3</v>
+      </c>
+      <c r="I531">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>28</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532">
+        <v>3</v>
+      </c>
+      <c r="H532">
+        <v>5</v>
+      </c>
+      <c r="I532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>19</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533">
+        <v>3</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+      <c r="H533">
+        <v>4</v>
+      </c>
+      <c r="I533">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>10</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>3</v>
+      </c>
+      <c r="G534">
+        <v>3</v>
+      </c>
+      <c r="H534">
+        <v>15</v>
+      </c>
+      <c r="I534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>23</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>3</v>
+      </c>
+      <c r="G535">
+        <v>3</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+      <c r="I535">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>13</v>
+      </c>
+      <c r="I536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+      <c r="E537">
+        <v>1</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537">
+        <v>2</v>
+      </c>
+      <c r="I537">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>20</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>2</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>7</v>
+      </c>
+      <c r="I538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>17</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+      <c r="G539">
+        <v>2</v>
+      </c>
+      <c r="H539">
+        <v>2</v>
+      </c>
+      <c r="I539">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>16</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>3</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>6</v>
+      </c>
+      <c r="I540">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>27</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <v>3</v>
+      </c>
+      <c r="H541">
+        <v>3</v>
+      </c>
+      <c r="I541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>15</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542">
+        <v>6</v>
+      </c>
+      <c r="I542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>13</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>3</v>
+      </c>
+      <c r="I543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>7</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544">
+        <v>3</v>
+      </c>
+      <c r="I544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>28</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>7</v>
+      </c>
+      <c r="H545">
+        <v>6</v>
+      </c>
+      <c r="I545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>21</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>24</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547">
+        <v>7</v>
+      </c>
+      <c r="I547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>25</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>7</v>
+      </c>
+      <c r="I548">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>22</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549">
+        <v>8</v>
+      </c>
+      <c r="I549">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>19</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>7</v>
+      </c>
+      <c r="I550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>3</v>
+      </c>
+      <c r="I551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>23</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>4</v>
+      </c>
+      <c r="I552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>9</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>4</v>
+      </c>
+      <c r="I553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" t="s">
+        <v>26</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>2</v>
+      </c>
+      <c r="H554">
+        <v>3</v>
+      </c>
+      <c r="I554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>11</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>2</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555">
+        <v>6</v>
+      </c>
+      <c r="I555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" t="s">
+        <v>13</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>3</v>
+      </c>
+      <c r="G556">
+        <v>2</v>
+      </c>
+      <c r="H556">
+        <v>14</v>
+      </c>
+      <c r="I556">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" t="s">
+        <v>9</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>1</v>
+      </c>
+      <c r="F557">
+        <v>2</v>
+      </c>
+      <c r="G557">
+        <v>3</v>
+      </c>
+      <c r="H557">
+        <v>5</v>
+      </c>
+      <c r="I557">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" t="s">
+        <v>10</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558">
+        <v>5</v>
+      </c>
+      <c r="G558">
+        <v>3</v>
+      </c>
+      <c r="H558">
+        <v>6</v>
+      </c>
+      <c r="I558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" t="s">
+        <v>14</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>3</v>
+      </c>
+      <c r="G559">
+        <v>5</v>
+      </c>
+      <c r="H559">
+        <v>1</v>
+      </c>
+      <c r="I559">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" t="s">
+        <v>19</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>2</v>
+      </c>
+      <c r="H560">
+        <v>17</v>
+      </c>
+      <c r="I560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
+      <c r="A561" t="s">
+        <v>21</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>1</v>
+      </c>
+      <c r="F561">
+        <v>2</v>
+      </c>
+      <c r="G561">
+        <v>1</v>
+      </c>
+      <c r="H561">
+        <v>5</v>
+      </c>
+      <c r="I561">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9">
+      <c r="A562" t="s">
+        <v>24</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>3</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+      <c r="H562">
+        <v>1</v>
+      </c>
+      <c r="I562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" t="s">
+        <v>20</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>3</v>
+      </c>
+      <c r="H563">
+        <v>2</v>
+      </c>
+      <c r="I563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" t="s">
+        <v>11</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>5</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564">
+        <v>5</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565" t="s">
+        <v>16</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>5</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+      <c r="I565">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" t="s">
+        <v>12</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566">
+        <v>6</v>
+      </c>
+      <c r="I566">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" t="s">
+        <v>23</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567">
+        <v>5</v>
+      </c>
+      <c r="I567">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" t="s">
+        <v>27</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>3</v>
+      </c>
+      <c r="G568">
+        <v>2</v>
+      </c>
+      <c r="H568">
+        <v>6</v>
+      </c>
+      <c r="I568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" t="s">
+        <v>25</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>2</v>
+      </c>
+      <c r="G569">
+        <v>3</v>
+      </c>
+      <c r="H569">
+        <v>1</v>
+      </c>
+      <c r="I569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" t="s">
+        <v>22</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>1</v>
+      </c>
+      <c r="G570">
+        <v>2</v>
+      </c>
+      <c r="H570">
+        <v>7</v>
+      </c>
+      <c r="I570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" t="s">
+        <v>18</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>2</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571">
+        <v>1</v>
+      </c>
+      <c r="I571">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" t="s">
+        <v>28</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572">
+        <v>2</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572">
+        <v>11</v>
+      </c>
+      <c r="I572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" t="s">
+        <v>26</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>1</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
+      <c r="G573">
+        <v>2</v>
+      </c>
+      <c r="H573">
+        <v>2</v>
+      </c>
+      <c r="I573">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12513,7 +17095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16055,6 +20637,1349 @@
         <v>24</v>
       </c>
     </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>19</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>17</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>15</v>
+      </c>
+      <c r="D226" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>14</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>27</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>9</v>
+      </c>
+      <c r="D238" t="s">
+        <v>21</v>
+      </c>
+      <c r="E238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>14</v>
+      </c>
+      <c r="D242" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>15</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>13</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>24</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>16</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>15</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>16</v>
+      </c>
+      <c r="E271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>9</v>
+      </c>
+      <c r="D272" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>8</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>18</v>
+      </c>
+      <c r="E273" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>15</v>
+      </c>
+      <c r="D275" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>9</v>
+      </c>
+      <c r="D278" t="s">
+        <v>26</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <v>19</v>
+      </c>
+      <c r="D279" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>8</v>
+      </c>
+      <c r="C280">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>22</v>
+      </c>
+      <c r="D281" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>7</v>
+      </c>
+      <c r="D285" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>8</v>
+      </c>
+      <c r="D286" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>13</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17088,6 +17088,180 @@
         <v>11</v>
       </c>
     </row>
+    <row r="574" spans="1:9">
+      <c r="A574" t="s">
+        <v>9</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>3</v>
+      </c>
+      <c r="G574">
+        <v>4</v>
+      </c>
+      <c r="H574">
+        <v>5</v>
+      </c>
+      <c r="I574">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" t="s">
+        <v>27</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575">
+        <v>4</v>
+      </c>
+      <c r="G575">
+        <v>3</v>
+      </c>
+      <c r="H575">
+        <v>7</v>
+      </c>
+      <c r="I575">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" t="s">
+        <v>11</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576">
+        <v>1</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
+      </c>
+      <c r="H576">
+        <v>6</v>
+      </c>
+      <c r="I576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" t="s">
+        <v>20</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+      <c r="F577">
+        <v>0</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+      <c r="H577">
+        <v>1</v>
+      </c>
+      <c r="I577">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" t="s">
+        <v>21</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578">
+        <v>0</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578">
+        <v>2</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>9</v>
+      </c>
+      <c r="I578">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9">
+      <c r="A579" t="s">
+        <v>10</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <v>2</v>
+      </c>
+      <c r="H579">
+        <v>4</v>
+      </c>
+      <c r="I579">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17095,7 +17269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21980,6 +22154,57 @@
         <v>26</v>
       </c>
     </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>13</v>
+      </c>
+      <c r="D290" t="s">
+        <v>21</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17262,6 +17262,354 @@
         <v>9</v>
       </c>
     </row>
+    <row r="580" spans="1:9">
+      <c r="A580" t="s">
+        <v>13</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
+      <c r="F580">
+        <v>1</v>
+      </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
+      <c r="H580">
+        <v>4</v>
+      </c>
+      <c r="I580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" t="s">
+        <v>16</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581">
+        <v>1</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581">
+        <v>3</v>
+      </c>
+      <c r="I581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9">
+      <c r="A582" t="s">
+        <v>14</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582">
+        <v>7</v>
+      </c>
+      <c r="I582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9">
+      <c r="A583" t="s">
+        <v>22</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583">
+        <v>1</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583">
+        <v>2</v>
+      </c>
+      <c r="I583">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9">
+      <c r="A584" t="s">
+        <v>23</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584">
+        <v>1</v>
+      </c>
+      <c r="G584">
+        <v>1</v>
+      </c>
+      <c r="H584">
+        <v>10</v>
+      </c>
+      <c r="I584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9">
+      <c r="A585" t="s">
+        <v>28</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585">
+        <v>3</v>
+      </c>
+      <c r="I585">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9">
+      <c r="A586" t="s">
+        <v>18</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586">
+        <v>3</v>
+      </c>
+      <c r="G586">
+        <v>4</v>
+      </c>
+      <c r="H586">
+        <v>5</v>
+      </c>
+      <c r="I586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9">
+      <c r="A587" t="s">
+        <v>26</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587">
+        <v>4</v>
+      </c>
+      <c r="G587">
+        <v>3</v>
+      </c>
+      <c r="H587">
+        <v>1</v>
+      </c>
+      <c r="I587">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9">
+      <c r="A588" t="s">
+        <v>15</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+      <c r="G588">
+        <v>1</v>
+      </c>
+      <c r="H588">
+        <v>7</v>
+      </c>
+      <c r="I588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" t="s">
+        <v>12</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>1</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>2</v>
+      </c>
+      <c r="I589">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9">
+      <c r="A590" t="s">
+        <v>20</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>2</v>
+      </c>
+      <c r="I590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" t="s">
+        <v>10</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>0</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+      <c r="H591">
+        <v>4</v>
+      </c>
+      <c r="I591">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17269,7 +17617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22205,6 +22553,108 @@
         <v>10</v>
       </c>
     </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>13</v>
+      </c>
+      <c r="D293" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>7</v>
+      </c>
+      <c r="C294">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>18</v>
+      </c>
+      <c r="E294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>9</v>
+      </c>
+      <c r="D295" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>20</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17610,6 +17610,528 @@
         <v>2</v>
       </c>
     </row>
+    <row r="592" spans="1:9">
+      <c r="A592" t="s">
+        <v>23</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592">
+        <v>1</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592">
+        <v>1</v>
+      </c>
+      <c r="I592">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" t="s">
+        <v>13</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>0</v>
+      </c>
+      <c r="F593">
+        <v>0</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593">
+        <v>7</v>
+      </c>
+      <c r="I593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" t="s">
+        <v>18</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594">
+        <v>1</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+      <c r="G594">
+        <v>1</v>
+      </c>
+      <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" t="s">
+        <v>9</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>1</v>
+      </c>
+      <c r="F595">
+        <v>1</v>
+      </c>
+      <c r="G595">
+        <v>1</v>
+      </c>
+      <c r="H595">
+        <v>5</v>
+      </c>
+      <c r="I595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" t="s">
+        <v>26</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>1</v>
+      </c>
+      <c r="G596">
+        <v>2</v>
+      </c>
+      <c r="H596">
+        <v>6</v>
+      </c>
+      <c r="I596">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" t="s">
+        <v>27</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597">
+        <v>11</v>
+      </c>
+      <c r="I597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" t="s">
+        <v>25</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+      <c r="G598">
+        <v>2</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+      <c r="I598">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" t="s">
+        <v>28</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>1</v>
+      </c>
+      <c r="F599">
+        <v>2</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
+      </c>
+      <c r="H599">
+        <v>6</v>
+      </c>
+      <c r="I599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" t="s">
+        <v>21</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+      <c r="F600">
+        <v>3</v>
+      </c>
+      <c r="G600">
+        <v>1</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+      <c r="I600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" t="s">
+        <v>17</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601">
+        <v>1</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+      <c r="G601">
+        <v>3</v>
+      </c>
+      <c r="H601">
+        <v>4</v>
+      </c>
+      <c r="I601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" t="s">
+        <v>15</v>
+      </c>
+      <c r="B602">
+        <v>1</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602">
+        <v>3</v>
+      </c>
+      <c r="G602">
+        <v>4</v>
+      </c>
+      <c r="H602">
+        <v>2</v>
+      </c>
+      <c r="I602">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" t="s">
+        <v>11</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603">
+        <v>4</v>
+      </c>
+      <c r="G603">
+        <v>3</v>
+      </c>
+      <c r="H603">
+        <v>6</v>
+      </c>
+      <c r="I603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" t="s">
+        <v>12</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>0</v>
+      </c>
+      <c r="G604">
+        <v>2</v>
+      </c>
+      <c r="H604">
+        <v>5</v>
+      </c>
+      <c r="I604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605" t="s">
+        <v>22</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>2</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>1</v>
+      </c>
+      <c r="I605">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606" t="s">
+        <v>14</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <v>2</v>
+      </c>
+      <c r="H606">
+        <v>10</v>
+      </c>
+      <c r="I606">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607" t="s">
+        <v>19</v>
+      </c>
+      <c r="B607">
+        <v>0</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607">
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>0</v>
+      </c>
+      <c r="F607">
+        <v>2</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>7</v>
+      </c>
+      <c r="I607">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608" t="s">
+        <v>16</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608">
+        <v>0</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>3</v>
+      </c>
+      <c r="I608">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609" t="s">
+        <v>24</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>0</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609">
+        <v>4</v>
+      </c>
+      <c r="I609">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17617,7 +18139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22655,6 +23177,159 @@
         <v>10</v>
       </c>
     </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298">
+        <v>8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>17</v>
+      </c>
+      <c r="D299" t="s">
+        <v>26</v>
+      </c>
+      <c r="E299" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>7</v>
+      </c>
+      <c r="D300" t="s">
+        <v>25</v>
+      </c>
+      <c r="E300" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+      <c r="D301" t="s">
+        <v>21</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>8</v>
+      </c>
+      <c r="D302" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>17</v>
+      </c>
+      <c r="D304" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>7</v>
+      </c>
+      <c r="D305" t="s">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18132,6 +18132,180 @@
         <v>3</v>
       </c>
     </row>
+    <row r="610" spans="1:9">
+      <c r="A610" t="s">
+        <v>9</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610">
+        <v>1</v>
+      </c>
+      <c r="G610">
+        <v>1</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+      <c r="I610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" t="s">
+        <v>21</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+      <c r="G611">
+        <v>1</v>
+      </c>
+      <c r="H611">
+        <v>4</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" t="s">
+        <v>27</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>1</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612">
+        <v>5</v>
+      </c>
+      <c r="I612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" t="s">
+        <v>20</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>0</v>
+      </c>
+      <c r="G613">
+        <v>1</v>
+      </c>
+      <c r="H613">
+        <v>4</v>
+      </c>
+      <c r="I613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" t="s">
+        <v>11</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614">
+        <v>0</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>1</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>2</v>
+      </c>
+      <c r="I614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" t="s">
+        <v>13</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>0</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615">
+        <v>2</v>
+      </c>
+      <c r="I615">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18139,7 +18313,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23330,6 +23504,57 @@
         <v>24</v>
       </c>
     </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>9</v>
+      </c>
+      <c r="D307" t="s">
+        <v>27</v>
+      </c>
+      <c r="E307" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I615"/>
+  <dimension ref="A1:I645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18306,6 +18306,876 @@
         <v>2</v>
       </c>
     </row>
+    <row r="616" spans="1:9">
+      <c r="A616" t="s">
+        <v>24</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
+      <c r="G616">
+        <v>2</v>
+      </c>
+      <c r="H616">
+        <v>8</v>
+      </c>
+      <c r="I616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617" t="s">
+        <v>18</v>
+      </c>
+      <c r="B617">
+        <v>0</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>2</v>
+      </c>
+      <c r="G617">
+        <v>1</v>
+      </c>
+      <c r="H617">
+        <v>1</v>
+      </c>
+      <c r="I617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618" t="s">
+        <v>19</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+      <c r="F618">
+        <v>1</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618">
+        <v>10</v>
+      </c>
+      <c r="I618">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9">
+      <c r="A619" t="s">
+        <v>23</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+      <c r="E619">
+        <v>0</v>
+      </c>
+      <c r="F619">
+        <v>0</v>
+      </c>
+      <c r="G619">
+        <v>1</v>
+      </c>
+      <c r="H619">
+        <v>6</v>
+      </c>
+      <c r="I619">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620" t="s">
+        <v>17</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620">
+        <v>0</v>
+      </c>
+      <c r="G620">
+        <v>2</v>
+      </c>
+      <c r="H620">
+        <v>4</v>
+      </c>
+      <c r="I620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9">
+      <c r="A621" t="s">
+        <v>25</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>2</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>3</v>
+      </c>
+      <c r="I621">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9">
+      <c r="A622" t="s">
+        <v>26</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622">
+        <v>0</v>
+      </c>
+      <c r="F622">
+        <v>0</v>
+      </c>
+      <c r="G622">
+        <v>1</v>
+      </c>
+      <c r="H622">
+        <v>5</v>
+      </c>
+      <c r="I622">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9">
+      <c r="A623" t="s">
+        <v>14</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>0</v>
+      </c>
+      <c r="F623">
+        <v>1</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>9</v>
+      </c>
+      <c r="I623">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9">
+      <c r="A624" t="s">
+        <v>22</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>1</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>4</v>
+      </c>
+      <c r="I624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9">
+      <c r="A625" t="s">
+        <v>15</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625">
+        <v>0</v>
+      </c>
+      <c r="F625">
+        <v>0</v>
+      </c>
+      <c r="G625">
+        <v>1</v>
+      </c>
+      <c r="H625">
+        <v>4</v>
+      </c>
+      <c r="I625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9">
+      <c r="A626" t="s">
+        <v>28</v>
+      </c>
+      <c r="B626">
+        <v>1</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626">
+        <v>0</v>
+      </c>
+      <c r="E626">
+        <v>0</v>
+      </c>
+      <c r="F626">
+        <v>0</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>4</v>
+      </c>
+      <c r="I626">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9">
+      <c r="A627" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>0</v>
+      </c>
+      <c r="F627">
+        <v>0</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>4</v>
+      </c>
+      <c r="I627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="A628" t="s">
+        <v>21</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="E628">
+        <v>0</v>
+      </c>
+      <c r="F628">
+        <v>0</v>
+      </c>
+      <c r="G628">
+        <v>3</v>
+      </c>
+      <c r="H628">
+        <v>8</v>
+      </c>
+      <c r="I628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9">
+      <c r="A629" t="s">
+        <v>26</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629">
+        <v>0</v>
+      </c>
+      <c r="E629">
+        <v>0</v>
+      </c>
+      <c r="F629">
+        <v>3</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629">
+        <v>4</v>
+      </c>
+      <c r="I629">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9">
+      <c r="A630" t="s">
+        <v>18</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="F630">
+        <v>0</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630">
+        <v>5</v>
+      </c>
+      <c r="I630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9">
+      <c r="A631" t="s">
+        <v>10</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
+      <c r="F631">
+        <v>0</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631">
+        <v>3</v>
+      </c>
+      <c r="I631">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9">
+      <c r="A632" t="s">
+        <v>13</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+      <c r="F632">
+        <v>1</v>
+      </c>
+      <c r="G632">
+        <v>1</v>
+      </c>
+      <c r="H632">
+        <v>15</v>
+      </c>
+      <c r="I632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9">
+      <c r="A633" t="s">
+        <v>17</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633">
+        <v>1</v>
+      </c>
+      <c r="F633">
+        <v>1</v>
+      </c>
+      <c r="G633">
+        <v>1</v>
+      </c>
+      <c r="H633">
+        <v>3</v>
+      </c>
+      <c r="I633">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9">
+      <c r="A634" t="s">
+        <v>16</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="F634">
+        <v>1</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>9</v>
+      </c>
+      <c r="I634">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9">
+      <c r="A635" t="s">
+        <v>19</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+      <c r="F635">
+        <v>0</v>
+      </c>
+      <c r="G635">
+        <v>1</v>
+      </c>
+      <c r="H635">
+        <v>5</v>
+      </c>
+      <c r="I635">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9">
+      <c r="A636" t="s">
+        <v>25</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <v>3</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636">
+        <v>4</v>
+      </c>
+      <c r="I636">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9">
+      <c r="A637" t="s">
+        <v>11</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+      <c r="E637">
+        <v>0</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+      <c r="G637">
+        <v>3</v>
+      </c>
+      <c r="H637">
+        <v>5</v>
+      </c>
+      <c r="I637">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9">
+      <c r="A638" t="s">
+        <v>14</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638">
+        <v>0</v>
+      </c>
+      <c r="G638">
+        <v>1</v>
+      </c>
+      <c r="H638">
+        <v>5</v>
+      </c>
+      <c r="I638">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9">
+      <c r="A639" t="s">
+        <v>28</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639">
+        <v>0</v>
+      </c>
+      <c r="E639">
+        <v>0</v>
+      </c>
+      <c r="F639">
+        <v>1</v>
+      </c>
+      <c r="G639">
+        <v>0</v>
+      </c>
+      <c r="H639">
+        <v>6</v>
+      </c>
+      <c r="I639">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9">
+      <c r="A640" t="s">
+        <v>23</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+      <c r="E640">
+        <v>1</v>
+      </c>
+      <c r="F640">
+        <v>1</v>
+      </c>
+      <c r="G640">
+        <v>1</v>
+      </c>
+      <c r="H640">
+        <v>5</v>
+      </c>
+      <c r="I640">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9">
+      <c r="A641" t="s">
+        <v>21</v>
+      </c>
+      <c r="B641">
+        <v>0</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+      <c r="E641">
+        <v>1</v>
+      </c>
+      <c r="F641">
+        <v>1</v>
+      </c>
+      <c r="G641">
+        <v>1</v>
+      </c>
+      <c r="H641">
+        <v>6</v>
+      </c>
+      <c r="I641">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9">
+      <c r="A642" t="s">
+        <v>20</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>0</v>
+      </c>
+      <c r="F642">
+        <v>0</v>
+      </c>
+      <c r="G642">
+        <v>3</v>
+      </c>
+      <c r="H642">
+        <v>7</v>
+      </c>
+      <c r="I642">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9">
+      <c r="A643" t="s">
+        <v>24</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+      <c r="D643">
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <v>0</v>
+      </c>
+      <c r="F643">
+        <v>3</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643">
+        <v>4</v>
+      </c>
+      <c r="I643">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9">
+      <c r="A644" t="s">
+        <v>15</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="F644">
+        <v>3</v>
+      </c>
+      <c r="G644">
+        <v>4</v>
+      </c>
+      <c r="H644">
+        <v>2</v>
+      </c>
+      <c r="I644">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9">
+      <c r="A645" t="s">
+        <v>27</v>
+      </c>
+      <c r="B645">
+        <v>0</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+      <c r="F645">
+        <v>4</v>
+      </c>
+      <c r="G645">
+        <v>3</v>
+      </c>
+      <c r="H645">
+        <v>6</v>
+      </c>
+      <c r="I645">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18313,7 +19183,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23555,6 +24425,261 @@
         <v>13</v>
       </c>
     </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>9</v>
+      </c>
+      <c r="D309" t="s">
+        <v>24</v>
+      </c>
+      <c r="E309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>16</v>
+      </c>
+      <c r="D310" t="s">
+        <v>19</v>
+      </c>
+      <c r="E310" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
+        <v>26</v>
+      </c>
+      <c r="E312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>8</v>
+      </c>
+      <c r="D313" t="s">
+        <v>22</v>
+      </c>
+      <c r="E313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>28</v>
+      </c>
+      <c r="E314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>12</v>
+      </c>
+      <c r="D315" t="s">
+        <v>21</v>
+      </c>
+      <c r="E315" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>18</v>
+      </c>
+      <c r="D317" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>14</v>
+      </c>
+      <c r="D318" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
+        <v>25</v>
+      </c>
+      <c r="E319" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s">
+        <v>23</v>
+      </c>
+      <c r="E321" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s">
+        <v>20</v>
+      </c>
+      <c r="E322" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>7</v>
+      </c>
+      <c r="C323">
+        <v>8</v>
+      </c>
+      <c r="D323" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I645"/>
+  <dimension ref="A1:I651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19176,6 +19176,180 @@
         <v>2</v>
       </c>
     </row>
+    <row r="646" spans="1:9">
+      <c r="A646" t="s">
+        <v>26</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+      <c r="D646">
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <v>0</v>
+      </c>
+      <c r="F646">
+        <v>1</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>1</v>
+      </c>
+      <c r="I646">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9">
+      <c r="A647" t="s">
+        <v>24</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647">
+        <v>0</v>
+      </c>
+      <c r="G647">
+        <v>1</v>
+      </c>
+      <c r="H647">
+        <v>5</v>
+      </c>
+      <c r="I647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9">
+      <c r="A648" t="s">
+        <v>25</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+      <c r="F648">
+        <v>1</v>
+      </c>
+      <c r="G648">
+        <v>1</v>
+      </c>
+      <c r="H648">
+        <v>5</v>
+      </c>
+      <c r="I648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9">
+      <c r="A649" t="s">
+        <v>10</v>
+      </c>
+      <c r="B649">
+        <v>0</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+      <c r="F649">
+        <v>1</v>
+      </c>
+      <c r="G649">
+        <v>1</v>
+      </c>
+      <c r="H649">
+        <v>2</v>
+      </c>
+      <c r="I649">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9">
+      <c r="A650" t="s">
+        <v>11</v>
+      </c>
+      <c r="B650">
+        <v>1</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650">
+        <v>3</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>6</v>
+      </c>
+      <c r="I650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9">
+      <c r="A651" t="s">
+        <v>18</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651">
+        <v>0</v>
+      </c>
+      <c r="F651">
+        <v>0</v>
+      </c>
+      <c r="G651">
+        <v>3</v>
+      </c>
+      <c r="H651">
+        <v>3</v>
+      </c>
+      <c r="I651">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19183,7 +19357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24680,6 +24854,57 @@
         <v>27</v>
       </c>
     </row>
+    <row r="324" spans="1:5">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>26</v>
+      </c>
+      <c r="E324" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>7</v>
+      </c>
+      <c r="D325" t="s">
+        <v>25</v>
+      </c>
+      <c r="E325" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>9</v>
+      </c>
+      <c r="D326" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/serie_a.xlsx
+++ b/serie_a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I651"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19350,6 +19350,2732 @@
         <v>6</v>
       </c>
     </row>
+    <row r="652" spans="1:9">
+      <c r="A652" t="s">
+        <v>27</v>
+      </c>
+      <c r="B652">
+        <v>1</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652">
+        <v>0</v>
+      </c>
+      <c r="F652">
+        <v>0</v>
+      </c>
+      <c r="G652">
+        <v>1</v>
+      </c>
+      <c r="H652">
+        <v>12</v>
+      </c>
+      <c r="I652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9">
+      <c r="A653" t="s">
+        <v>23</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
+      </c>
+      <c r="F653">
+        <v>1</v>
+      </c>
+      <c r="G653">
+        <v>0</v>
+      </c>
+      <c r="H653">
+        <v>1</v>
+      </c>
+      <c r="I653">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9">
+      <c r="A654" t="s">
+        <v>19</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+      <c r="F654">
+        <v>2</v>
+      </c>
+      <c r="G654">
+        <v>2</v>
+      </c>
+      <c r="H654">
+        <v>7</v>
+      </c>
+      <c r="I654">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9">
+      <c r="A655" t="s">
+        <v>15</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+      <c r="C655">
+        <v>1</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+      <c r="F655">
+        <v>2</v>
+      </c>
+      <c r="G655">
+        <v>2</v>
+      </c>
+      <c r="H655">
+        <v>3</v>
+      </c>
+      <c r="I655">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9">
+      <c r="A656" t="s">
+        <v>21</v>
+      </c>
+      <c r="B656">
+        <v>1</v>
+      </c>
+      <c r="C656">
+        <v>1</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656">
+        <v>2</v>
+      </c>
+      <c r="G656">
+        <v>1</v>
+      </c>
+      <c r="H656">
+        <v>3</v>
+      </c>
+      <c r="I656">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9">
+      <c r="A657" t="s">
+        <v>14</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+      <c r="C657">
+        <v>1</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>1</v>
+      </c>
+      <c r="F657">
+        <v>1</v>
+      </c>
+      <c r="G657">
+        <v>2</v>
+      </c>
+      <c r="H657">
+        <v>7</v>
+      </c>
+      <c r="I657">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9">
+      <c r="A658" t="s">
+        <v>20</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+      <c r="F658">
+        <v>1</v>
+      </c>
+      <c r="G658">
+        <v>1</v>
+      </c>
+      <c r="H658">
+        <v>11</v>
+      </c>
+      <c r="I658">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9">
+      <c r="A659" t="s">
+        <v>13</v>
+      </c>
+      <c r="B659">
+        <v>0</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659">
+        <v>1</v>
+      </c>
+      <c r="F659">
+        <v>1</v>
+      </c>
+      <c r="G659">
+        <v>1</v>
+      </c>
+      <c r="H659">
+        <v>6</v>
+      </c>
+      <c r="I659">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9">
+      <c r="A660" t="s">
+        <v>12</v>
+      </c>
+      <c r="B660">
+        <v>1</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+      <c r="F660">
+        <v>2</v>
+      </c>
+      <c r="G660">
+        <v>1</v>
+      </c>
+      <c r="H660">
+        <v>2</v>
+      </c>
+      <c r="I660">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9">
+      <c r="A661" t="s">
+        <v>17</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+      <c r="F661">
+        <v>1</v>
+      </c>
+      <c r="G661">
+        <v>2</v>
+      </c>
+      <c r="H661">
+        <v>9</v>
+      </c>
+      <c r="I661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9">
+      <c r="A662" t="s">
+        <v>28</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+      <c r="E662">
+        <v>0</v>
+      </c>
+      <c r="F662">
+        <v>0</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662">
+        <v>1</v>
+      </c>
+      <c r="I662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9">
+      <c r="A663" t="s">
+        <v>16</v>
+      </c>
+      <c r="B663">
+        <v>0</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+      <c r="D663">
+        <v>0</v>
+      </c>
+      <c r="E663">
+        <v>0</v>
+      </c>
+      <c r="F663">
+        <v>0</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+      <c r="H663">
+        <v>4</v>
+      </c>
+      <c r="I663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9">
+      <c r="A664" t="s">
+        <v>22</v>
+      </c>
+      <c r="B664">
+        <v>1</v>
+      </c>
+      <c r="C664">
+        <v>1</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+      <c r="E664">
+        <v>1</v>
+      </c>
+      <c r="F664">
+        <v>2</v>
+      </c>
+      <c r="G664">
+        <v>1</v>
+      </c>
+      <c r="H664">
+        <v>7</v>
+      </c>
+      <c r="I664">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9">
+      <c r="A665" t="s">
+        <v>9</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+      <c r="C665">
+        <v>1</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+      <c r="E665">
+        <v>1</v>
+      </c>
+      <c r="F665">
+        <v>1</v>
+      </c>
+      <c r="G665">
+        <v>2</v>
+      </c>
+      <c r="H665">
+        <v>8</v>
+      </c>
+      <c r="I665">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9">
+      <c r="A666" t="s">
+        <v>17</v>
+      </c>
+      <c r="B666">
+        <v>1</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666">
+        <v>0</v>
+      </c>
+      <c r="F666">
+        <v>0</v>
+      </c>
+      <c r="G666">
+        <v>1</v>
+      </c>
+      <c r="H666">
+        <v>11</v>
+      </c>
+      <c r="I666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9">
+      <c r="A667" t="s">
+        <v>24</v>
+      </c>
+      <c r="B667">
+        <v>0</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+      <c r="D667">
+        <v>0</v>
+      </c>
+      <c r="E667">
+        <v>0</v>
+      </c>
+      <c r="F667">
+        <v>1</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667">
+        <v>1</v>
+      </c>
+      <c r="I667">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9">
+      <c r="A668" t="s">
+        <v>24</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+      <c r="F668">
+        <v>2</v>
+      </c>
+      <c r="G668">
+        <v>2</v>
+      </c>
+      <c r="H668">
+        <v>7</v>
+      </c>
+      <c r="I668">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9">
+      <c r="A669" t="s">
+        <v>22</v>
+      </c>
+      <c r="B669">
+        <v>0</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+      <c r="F669">
+        <v>2</v>
+      </c>
+      <c r="G669">
+        <v>2</v>
+      </c>
+      <c r="H669">
+        <v>5</v>
+      </c>
+      <c r="I669">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9">
+      <c r="A670" t="s">
+        <v>10</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670">
+        <v>1</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>3</v>
+      </c>
+      <c r="I670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9">
+      <c r="A671" t="s">
+        <v>16</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671">
+        <v>0</v>
+      </c>
+      <c r="F671">
+        <v>0</v>
+      </c>
+      <c r="G671">
+        <v>1</v>
+      </c>
+      <c r="H671">
+        <v>4</v>
+      </c>
+      <c r="I671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9">
+      <c r="A672" t="s">
+        <v>15</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
+      </c>
+      <c r="C672">
+        <v>1</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+      <c r="F672">
+        <v>1</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+      <c r="H672">
+        <v>4</v>
+      </c>
+      <c r="I672">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9">
+      <c r="A673" t="s">
+        <v>28</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673">
+        <v>1</v>
+      </c>
+      <c r="F673">
+        <v>1</v>
+      </c>
+      <c r="G673">
+        <v>1</v>
+      </c>
+      <c r="H673">
+        <v>5</v>
+      </c>
+      <c r="I673">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9">
+      <c r="A674" t="s">
+        <v>21</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+      <c r="D674">
+        <v>0</v>
+      </c>
+      <c r="E674">
+        <v>0</v>
+      </c>
+      <c r="F674">
+        <v>3</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+      <c r="H674">
+        <v>7</v>
+      </c>
+      <c r="I674">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9">
+      <c r="A675" t="s">
+        <v>27</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>0</v>
+      </c>
+      <c r="F675">
+        <v>0</v>
+      </c>
+      <c r="G675">
+        <v>3</v>
+      </c>
+      <c r="H675">
+        <v>7</v>
+      </c>
+      <c r="I675">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9">
+      <c r="A676" t="s">
+        <v>18</v>
+      </c>
+      <c r="B676">
+        <v>1</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+      <c r="D676">
+        <v>0</v>
+      </c>
+      <c r="E676">
+        <v>0</v>
+      </c>
+      <c r="F676">
+        <v>1</v>
+      </c>
+      <c r="G676">
+        <v>0</v>
+      </c>
+      <c r="H676">
+        <v>4</v>
+      </c>
+      <c r="I676">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9">
+      <c r="A677" t="s">
+        <v>19</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677">
+        <v>0</v>
+      </c>
+      <c r="F677">
+        <v>0</v>
+      </c>
+      <c r="G677">
+        <v>1</v>
+      </c>
+      <c r="H677">
+        <v>7</v>
+      </c>
+      <c r="I677">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9">
+      <c r="A678" t="s">
+        <v>16</v>
+      </c>
+      <c r="B678">
+        <v>1</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>0</v>
+      </c>
+      <c r="F678">
+        <v>0</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678">
+        <v>5</v>
+      </c>
+      <c r="I678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9">
+      <c r="A679" t="s">
+        <v>12</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+      <c r="D679">
+        <v>0</v>
+      </c>
+      <c r="E679">
+        <v>0</v>
+      </c>
+      <c r="F679">
+        <v>0</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+      <c r="H679">
+        <v>1</v>
+      </c>
+      <c r="I679">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9">
+      <c r="A680" t="s">
+        <v>17</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+      <c r="C680">
+        <v>1</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+      <c r="F680">
+        <v>2</v>
+      </c>
+      <c r="G680">
+        <v>2</v>
+      </c>
+      <c r="H680">
+        <v>4</v>
+      </c>
+      <c r="I680">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9">
+      <c r="A681" t="s">
+        <v>11</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+      <c r="F681">
+        <v>2</v>
+      </c>
+      <c r="G681">
+        <v>2</v>
+      </c>
+      <c r="H681">
+        <v>7</v>
+      </c>
+      <c r="I681">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9">
+      <c r="A682" t="s">
+        <v>21</v>
+      </c>
+      <c r="B682">
+        <v>1</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+      <c r="F682">
+        <v>0</v>
+      </c>
+      <c r="G682">
+        <v>3</v>
+      </c>
+      <c r="H682">
+        <v>3</v>
+      </c>
+      <c r="I682">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9">
+      <c r="A683" t="s">
+        <v>25</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>1</v>
+      </c>
+      <c r="D683">
+        <v>0</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+      <c r="F683">
+        <v>3</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>7</v>
+      </c>
+      <c r="I683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9">
+      <c r="A684" t="s">
+        <v>14</v>
+      </c>
+      <c r="B684">
+        <v>1</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684">
+        <v>0</v>
+      </c>
+      <c r="F684">
+        <v>0</v>
+      </c>
+      <c r="G684">
+        <v>1</v>
+      </c>
+      <c r="H684">
+        <v>4</v>
+      </c>
+      <c r="I684">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9">
+      <c r="A685" t="s">
+        <v>24</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>1</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>0</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>5</v>
+      </c>
+      <c r="I685">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9">
+      <c r="A686" t="s">
+        <v>22</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686">
+        <v>2</v>
+      </c>
+      <c r="G686">
+        <v>4</v>
+      </c>
+      <c r="H686">
+        <v>8</v>
+      </c>
+      <c r="I686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9">
+      <c r="A687" t="s">
+        <v>23</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+      <c r="F687">
+        <v>4</v>
+      </c>
+      <c r="G687">
+        <v>2</v>
+      </c>
+      <c r="H687">
+        <v>3</v>
+      </c>
+      <c r="I687">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9">
+      <c r="A688" t="s">
+        <v>28</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688">
+        <v>0</v>
+      </c>
+      <c r="F688">
+        <v>0</v>
+      </c>
+      <c r="G688">
+        <v>3</v>
+      </c>
+      <c r="H688">
+        <v>5</v>
+      </c>
+      <c r="I688">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9">
+      <c r="A689" t="s">
+        <v>10</v>
+      </c>
+      <c r="B689">
+        <v>0</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+      <c r="D689">
+        <v>0</v>
+      </c>
+      <c r="E689">
+        <v>0</v>
+      </c>
+      <c r="F689">
+        <v>3</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689">
+        <v>3</v>
+      </c>
+      <c r="I689">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9">
+      <c r="A690" t="s">
+        <v>25</v>
+      </c>
+      <c r="B690">
+        <v>1</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+      <c r="E690">
+        <v>0</v>
+      </c>
+      <c r="F690">
+        <v>0</v>
+      </c>
+      <c r="G690">
+        <v>3</v>
+      </c>
+      <c r="H690">
+        <v>10</v>
+      </c>
+      <c r="I690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9">
+      <c r="A691" t="s">
+        <v>21</v>
+      </c>
+      <c r="B691">
+        <v>0</v>
+      </c>
+      <c r="C691">
+        <v>1</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>0</v>
+      </c>
+      <c r="F691">
+        <v>3</v>
+      </c>
+      <c r="G691">
+        <v>0</v>
+      </c>
+      <c r="H691">
+        <v>1</v>
+      </c>
+      <c r="I691">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9">
+      <c r="A692" t="s">
+        <v>12</v>
+      </c>
+      <c r="B692">
+        <v>1</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>1</v>
+      </c>
+      <c r="E692">
+        <v>0</v>
+      </c>
+      <c r="F692">
+        <v>0</v>
+      </c>
+      <c r="G692">
+        <v>2</v>
+      </c>
+      <c r="H692">
+        <v>2</v>
+      </c>
+      <c r="I692">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9">
+      <c r="A693" t="s">
+        <v>18</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+      <c r="F693">
+        <v>2</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+      <c r="H693">
+        <v>5</v>
+      </c>
+      <c r="I693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9">
+      <c r="A694" t="s">
+        <v>20</v>
+      </c>
+      <c r="B694">
+        <v>1</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+      <c r="D694">
+        <v>1</v>
+      </c>
+      <c r="E694">
+        <v>0</v>
+      </c>
+      <c r="F694">
+        <v>0</v>
+      </c>
+      <c r="G694">
+        <v>1</v>
+      </c>
+      <c r="H694">
+        <v>3</v>
+      </c>
+      <c r="I694">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9">
+      <c r="A695" t="s">
+        <v>16</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+      <c r="D695">
+        <v>0</v>
+      </c>
+      <c r="E695">
+        <v>0</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+      <c r="H695">
+        <v>5</v>
+      </c>
+      <c r="I695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9">
+      <c r="A696" t="s">
+        <v>26</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+      <c r="F696">
+        <v>1</v>
+      </c>
+      <c r="G696">
+        <v>1</v>
+      </c>
+      <c r="H696">
+        <v>3</v>
+      </c>
+      <c r="I696">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9">
+      <c r="A697" t="s">
+        <v>15</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+      <c r="G697">
+        <v>1</v>
+      </c>
+      <c r="H697">
+        <v>10</v>
+      </c>
+      <c r="I697">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9">
+      <c r="A698" t="s">
+        <v>11</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>0</v>
+      </c>
+      <c r="F698">
+        <v>4</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+      <c r="H698">
+        <v>10</v>
+      </c>
+      <c r="I698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9">
+      <c r="A699" t="s">
+        <v>9</v>
+      </c>
+      <c r="B699">
+        <v>0</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
+      </c>
+      <c r="E699">
+        <v>0</v>
+      </c>
+      <c r="F699">
+        <v>0</v>
+      </c>
+      <c r="G699">
+        <v>4</v>
+      </c>
+      <c r="H699">
+        <v>2</v>
+      </c>
+      <c r="I699">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9">
+      <c r="A700" t="s">
+        <v>27</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700">
+        <v>2</v>
+      </c>
+      <c r="G700">
+        <v>1</v>
+      </c>
+      <c r="H700">
+        <v>6</v>
+      </c>
+      <c r="I700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9">
+      <c r="A701" t="s">
+        <v>14</v>
+      </c>
+      <c r="B701">
+        <v>0</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>1</v>
+      </c>
+      <c r="G701">
+        <v>2</v>
+      </c>
+      <c r="H701">
+        <v>3</v>
+      </c>
+      <c r="I701">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9">
+      <c r="A702" t="s">
+        <v>24</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702">
+        <v>1</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+      <c r="F702">
+        <v>1</v>
+      </c>
+      <c r="G702">
+        <v>1</v>
+      </c>
+      <c r="H702">
+        <v>2</v>
+      </c>
+      <c r="I702">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9">
+      <c r="A703" t="s">
+        <v>13</v>
+      </c>
+      <c r="B703">
+        <v>0</v>
+      </c>
+      <c r="C703">
+        <v>1</v>
+      </c>
+      <c r="D703">
+        <v>1</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>1</v>
+      </c>
+      <c r="G703">
+        <v>1</v>
+      </c>
+      <c r="H703">
+        <v>3</v>
+      </c>
+      <c r="I703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9">
+      <c r="A704" t="s">
+        <v>19</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+      <c r="G704">
+        <v>2</v>
+      </c>
+      <c r="H704">
+        <v>15</v>
+      </c>
+      <c r="I704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9">
+      <c r="A705" t="s">
+        <v>17</v>
+      </c>
+      <c r="B705">
+        <v>0</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+      <c r="F705">
+        <v>2</v>
+      </c>
+      <c r="G705">
+        <v>1</v>
+      </c>
+      <c r="H705">
+        <v>3</v>
+      </c>
+      <c r="I705">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9">
+      <c r="A706" t="s">
+        <v>23</v>
+      </c>
+      <c r="B706">
+        <v>1</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706">
+        <v>1</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+      <c r="G706">
+        <v>2</v>
+      </c>
+      <c r="H706">
+        <v>5</v>
+      </c>
+      <c r="I706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707" t="s">
+        <v>18</v>
+      </c>
+      <c r="B707">
+        <v>0</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707">
+        <v>1</v>
+      </c>
+      <c r="F707">
+        <v>2</v>
+      </c>
+      <c r="G707">
+        <v>1</v>
+      </c>
+      <c r="H707">
+        <v>4</v>
+      </c>
+      <c r="I707">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9">
+      <c r="A708" t="s">
+        <v>21</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+      <c r="D708">
+        <v>1</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+      <c r="F708">
+        <v>2</v>
+      </c>
+      <c r="G708">
+        <v>1</v>
+      </c>
+      <c r="H708">
+        <v>3</v>
+      </c>
+      <c r="I708">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9">
+      <c r="A709" t="s">
+        <v>16</v>
+      </c>
+      <c r="B709">
+        <v>0</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+      <c r="E709">
+        <v>1</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+      <c r="G709">
+        <v>2</v>
+      </c>
+      <c r="H709">
+        <v>5</v>
+      </c>
+      <c r="I709">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9">
+      <c r="A710" t="s">
+        <v>11</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+      <c r="D710">
+        <v>0</v>
+      </c>
+      <c r="E710">
+        <v>0</v>
+      </c>
+      <c r="F710">
+        <v>1</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <v>7</v>
+      </c>
+      <c r="I710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9">
+      <c r="A711" t="s">
+        <v>10</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+      <c r="D711">
+        <v>1</v>
+      </c>
+      <c r="E711">
+        <v>0</v>
+      </c>
+      <c r="F711">
+        <v>0</v>
+      </c>
+      <c r="G711">
+        <v>1</v>
+      </c>
+      <c r="H711">
+        <v>1</v>
+      </c>
+      <c r="I711">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9">
+      <c r="A712" t="s">
+        <v>25</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+      <c r="C712">
+        <v>1</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <v>2</v>
+      </c>
+      <c r="G712">
+        <v>1</v>
+      </c>
+      <c r="H712">
+        <v>6</v>
+      </c>
+      <c r="I712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9">
+      <c r="A713" t="s">
+        <v>12</v>
+      </c>
+      <c r="B713">
+        <v>0</v>
+      </c>
+      <c r="C713">
+        <v>1</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+      <c r="F713">
+        <v>1</v>
+      </c>
+      <c r="G713">
+        <v>2</v>
+      </c>
+      <c r="H713">
+        <v>2</v>
+      </c>
+      <c r="I713">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9">
+      <c r="A714" t="s">
+        <v>19</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+      <c r="C714">
+        <v>1</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714">
+        <v>0</v>
+      </c>
+      <c r="F714">
+        <v>1</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <v>12</v>
+      </c>
+      <c r="I714">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9">
+      <c r="A715" t="s">
+        <v>26</v>
+      </c>
+      <c r="B715">
+        <v>0</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715">
+        <v>0</v>
+      </c>
+      <c r="F715">
+        <v>0</v>
+      </c>
+      <c r="G715">
+        <v>1</v>
+      </c>
+      <c r="H715">
+        <v>6</v>
+      </c>
+      <c r="I715">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9">
+      <c r="A716" t="s">
+        <v>9</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+      <c r="D716">
+        <v>1</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+      <c r="F716">
+        <v>3</v>
+      </c>
+      <c r="G716">
+        <v>2</v>
+      </c>
+      <c r="H716">
+        <v>2</v>
+      </c>
+      <c r="I716">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9">
+      <c r="A717" t="s">
+        <v>20</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717">
+        <v>2</v>
+      </c>
+      <c r="G717">
+        <v>3</v>
+      </c>
+      <c r="H717">
+        <v>10</v>
+      </c>
+      <c r="I717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9">
+      <c r="A718" t="s">
+        <v>17</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718">
+        <v>0</v>
+      </c>
+      <c r="E718">
+        <v>0</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+      <c r="G718">
+        <v>0</v>
+      </c>
+      <c r="H718">
+        <v>4</v>
+      </c>
+      <c r="I718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9">
+      <c r="A719" t="s">
+        <v>14</v>
+      </c>
+      <c r="B719">
+        <v>0</v>
+      </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719">
+        <v>0</v>
+      </c>
+      <c r="F719">
+        <v>0</v>
+      </c>
+      <c r="G719">
+        <v>1</v>
+      </c>
+      <c r="H719">
+        <v>2</v>
+      </c>
+      <c r="I719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9">
+      <c r="A720" t="s">
+        <v>13</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720">
+        <v>0</v>
+      </c>
+      <c r="F720">
+        <v>3</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720">
+        <v>6</v>
+      </c>
+      <c r="I720">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9">
+      <c r="A721" t="s">
+        <v>28</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+      <c r="C721">
+        <v>0</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+      <c r="E721">
+        <v>0</v>
+      </c>
+      <c r="F721">
+        <v>0</v>
+      </c>
+      <c r="G721">
+        <v>3</v>
+      </c>
+      <c r="H721">
+        <v>6</v>
+      </c>
+      <c r="I721">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9">
+      <c r="A722" t="s">
+        <v>15</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+      <c r="C722">
+        <v>0</v>
+      </c>
+      <c r="D722">
+        <v>0</v>
+      </c>
+      <c r="E722">
+        <v>0</v>
+      </c>
+      <c r="F722">
+        <v>0</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>6</v>
+      </c>
+      <c r="I722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9">
+      <c r="A723" t="s">
+        <v>24</v>
+      </c>
+      <c r="B723">
+        <v>0</v>
+      </c>
+      <c r="C723">
+        <v>0</v>
+      </c>
+      <c r="D723">
+        <v>0</v>
+      </c>
+      <c r="E723">
+        <v>0</v>
+      </c>
+      <c r="F723">
+        <v>0</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723">
+        <v>2</v>
+      </c>
+      <c r="I723">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9">
+      <c r="A724" t="s">
+        <v>27</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+      <c r="E724">
+        <v>0</v>
+      </c>
+      <c r="F724">
+        <v>1</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <v>5</v>
+      </c>
+      <c r="I724">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9">
+      <c r="A725" t="s">
+        <v>22</v>
+      </c>
+      <c r="B725">
+        <v>0</v>
+      </c>
+      <c r="C725">
+        <v>0</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+      <c r="E725">
+        <v>0</v>
+      </c>
+      <c r="F725">
+        <v>0</v>
+      </c>
+      <c r="G725">
+        <v>1</v>
+      </c>
+      <c r="H725">
+        <v>6</v>
+      </c>
+      <c r="I725">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9">
+      <c r="A726" t="s">
+        <v>14</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726">
+        <v>0</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <v>8</v>
+      </c>
+      <c r="I726">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9">
+      <c r="A727" t="s">
+        <v>21</v>
+      </c>
+      <c r="B727">
+        <v>0</v>
+      </c>
+      <c r="C727">
+        <v>0</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727">
+        <v>0</v>
+      </c>
+      <c r="F727">
+        <v>0</v>
+      </c>
+      <c r="G727">
+        <v>1</v>
+      </c>
+      <c r="H727">
+        <v>7</v>
+      </c>
+      <c r="I727">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9">
+      <c r="A728" t="s">
+        <v>12</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728">
+        <v>0</v>
+      </c>
+      <c r="F728">
+        <v>3</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+      <c r="H728">
+        <v>5</v>
+      </c>
+      <c r="I728">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9">
+      <c r="A729" t="s">
+        <v>13</v>
+      </c>
+      <c r="B729">
+        <v>0</v>
+      </c>
+      <c r="C729">
+        <v>0</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
+      <c r="F729">
+        <v>0</v>
+      </c>
+      <c r="G729">
+        <v>3</v>
+      </c>
+      <c r="H729">
+        <v>9</v>
+      </c>
+      <c r="I729">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730" t="s">
+        <v>18</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>1</v>
+      </c>
+      <c r="F730">
+        <v>3</v>
+      </c>
+      <c r="G730">
+        <v>1</v>
+      </c>
+      <c r="H730">
+        <v>1</v>
+      </c>
+      <c r="I730">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731" t="s">
+        <v>15</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+      <c r="C731">
+        <v>1</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+      <c r="G731">
+        <v>3</v>
+      </c>
+      <c r="H731">
+        <v>5</v>
+      </c>
+      <c r="I731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9">
+      <c r="A732" t="s">
+        <v>26</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+      <c r="C732">
+        <v>0</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+      <c r="E732">
+        <v>0</v>
+      </c>
+      <c r="F732">
+        <v>0</v>
+      </c>
+      <c r="G732">
+        <v>2</v>
+      </c>
+      <c r="H732">
+        <v>6</v>
+      </c>
+      <c r="I732">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9">
+      <c r="A733" t="s">
+        <v>23</v>
+      </c>
+      <c r="B733">
+        <v>0</v>
+      </c>
+      <c r="C733">
+        <v>1</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733">
+        <v>0</v>
+      </c>
+      <c r="F733">
+        <v>2</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+      <c r="H733">
+        <v>6</v>
+      </c>
+      <c r="I733">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9">
+      <c r="A734" t="s">
+        <v>10</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+      <c r="F734">
+        <v>2</v>
+      </c>
+      <c r="G734">
+        <v>3</v>
+      </c>
+      <c r="H734">
+        <v>7</v>
+      </c>
+      <c r="I734">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9">
+      <c r="A735" t="s">
+        <v>27</v>
+      </c>
+      <c r="B735">
+        <v>0</v>
+      </c>
+      <c r="C735">
+        <v>1</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+      <c r="F735">
+        <v>3</v>
+      </c>
+      <c r="G735">
+        <v>2</v>
+      </c>
+      <c r="H735">
+        <v>3</v>
+      </c>
+      <c r="I735">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736" t="s">
+        <v>28</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+      <c r="C736">
+        <v>1</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+      <c r="F736">
+        <v>1</v>
+      </c>
+      <c r="G736">
+        <v>2</v>
+      </c>
+      <c r="H736">
+        <v>10</v>
+      </c>
+      <c r="I736">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9">
+      <c r="A737" t="s">
+        <v>17</v>
+      </c>
+      <c r="B737">
+        <v>0</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>1</v>
+      </c>
+      <c r="F737">
+        <v>2</v>
+      </c>
+      <c r="G737">
+        <v>1</v>
+      </c>
+      <c r="H737">
+        <v>6</v>
+      </c>
+      <c r="I737">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9">
+      <c r="A738" t="s">
+        <v>22</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="F738">
+        <v>2</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+      <c r="H738">
+        <v>2</v>
+      </c>
+      <c r="I738">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9">
+      <c r="A739" t="s">
+        <v>19</v>
+      </c>
+      <c r="B739">
+        <v>0</v>
+      </c>
+      <c r="C739">
+        <v>1</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+      <c r="F739">
+        <v>1</v>
+      </c>
+      <c r="G739">
+        <v>2</v>
+      </c>
+      <c r="H739">
+        <v>3</v>
+      </c>
+      <c r="I739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9">
+      <c r="A740" t="s">
+        <v>20</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740">
+        <v>4</v>
+      </c>
+      <c r="G740">
+        <v>1</v>
+      </c>
+      <c r="H740">
+        <v>3</v>
+      </c>
+      <c r="I740">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9">
+      <c r="A741" t="s">
+        <v>21</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+      <c r="C741">
+        <v>1</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+      <c r="F741">
+        <v>1</v>
+      </c>
+      <c r="G741">
+        <v>4</v>
+      </c>
+      <c r="H741">
+        <v>5</v>
+      </c>
+      <c r="I741">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9">
+      <c r="A742" t="s">
+        <v>24</v>
+      </c>
+      <c r="B742">
+        <v>1</v>
+      </c>
+      <c r="C742">
+        <v>1</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+      <c r="F742">
+        <v>1</v>
+      </c>
+      <c r="G742">
+        <v>1</v>
+      </c>
+      <c r="H742">
+        <v>3</v>
+      </c>
+      <c r="I742">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9">
+      <c r="A743" t="s">
+        <v>11</v>
+      </c>
+      <c r="B743">
+        <v>0</v>
+      </c>
+      <c r="C743">
+        <v>1</v>
+      </c>
+      <c r="D743">
+        <v>1</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+      <c r="F743">
+        <v>1</v>
+      </c>
+      <c r="G743">
+        <v>1</v>
+      </c>
+      <c r="H743">
+        <v>5</v>
+      </c>
+      <c r="I743">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9">
+      <c r="A744" t="s">
+        <v>16</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+      <c r="C744">
+        <v>1</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+      <c r="E744">
+        <v>0</v>
+      </c>
+      <c r="F744">
+        <v>1</v>
+      </c>
+      <c r="G744">
+        <v>0</v>
+      </c>
+      <c r="H744">
+        <v>4</v>
+      </c>
+      <c r="I744">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9">
+      <c r="A745" t="s">
+        <v>25</v>
+      </c>
+      <c r="B745">
+        <v>0</v>
+      </c>
+      <c r="C745">
+        <v>0</v>
+      </c>
+      <c r="D745">
+        <v>1</v>
+      </c>
+      <c r="E745">
+        <v>0</v>
+      </c>
+      <c r="F745">
+        <v>0</v>
+      </c>
+      <c r="G745">
+        <v>1</v>
+      </c>
+      <c r="H745">
+        <v>9</v>
+      </c>
+      <c r="I745">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19357,7 +22083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24905,6 +27631,805 @@
         <v>18</v>
       </c>
     </row>
+    <row r="327" spans="1:5">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>13</v>
+      </c>
+      <c r="D327" t="s">
+        <v>27</v>
+      </c>
+      <c r="E327" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>19</v>
+      </c>
+      <c r="E328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>21</v>
+      </c>
+      <c r="E329" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>17</v>
+      </c>
+      <c r="D330" t="s">
+        <v>20</v>
+      </c>
+      <c r="E330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>5</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>15</v>
+      </c>
+      <c r="D333" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>12</v>
+      </c>
+      <c r="D334" t="s">
+        <v>17</v>
+      </c>
+      <c r="E334" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335">
+        <v>4</v>
+      </c>
+      <c r="C335">
+        <v>12</v>
+      </c>
+      <c r="D335" t="s">
+        <v>24</v>
+      </c>
+      <c r="E335" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>7</v>
+      </c>
+      <c r="D336" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>9</v>
+      </c>
+      <c r="D337" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>14</v>
+      </c>
+      <c r="D338" t="s">
+        <v>21</v>
+      </c>
+      <c r="E338" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s">
+        <v>18</v>
+      </c>
+      <c r="E339" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s">
+        <v>17</v>
+      </c>
+      <c r="E341" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>21</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>9</v>
+      </c>
+      <c r="D343" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s">
+        <v>22</v>
+      </c>
+      <c r="E344" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345">
+        <v>8</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s">
+        <v>25</v>
+      </c>
+      <c r="E346" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>7</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>8</v>
+      </c>
+      <c r="D348" t="s">
+        <v>20</v>
+      </c>
+      <c r="E348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s">
+        <v>26</v>
+      </c>
+      <c r="E349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>4</v>
+      </c>
+      <c r="C350">
+        <v>12</v>
+      </c>
+      <c r="D350" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>9</v>
+      </c>
+      <c r="D351" t="s">
+        <v>27</v>
+      </c>
+      <c r="E351" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>5</v>
+      </c>
+      <c r="D352" t="s">
+        <v>24</v>
+      </c>
+      <c r="E352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>18</v>
+      </c>
+      <c r="D353" t="s">
+        <v>19</v>
+      </c>
+      <c r="E353" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>9</v>
+      </c>
+      <c r="D354" t="s">
+        <v>23</v>
+      </c>
+      <c r="E354" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>8</v>
+      </c>
+      <c r="D355" t="s">
+        <v>21</v>
+      </c>
+      <c r="E355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>8</v>
+      </c>
+      <c r="D356" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>8</v>
+      </c>
+      <c r="D357" t="s">
+        <v>25</v>
+      </c>
+      <c r="E357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>18</v>
+      </c>
+      <c r="D358" t="s">
+        <v>19</v>
+      </c>
+      <c r="E358" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359">
+        <v>5</v>
+      </c>
+      <c r="C359">
+        <v>12</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>17</v>
+      </c>
+      <c r="E360" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>12</v>
+      </c>
+      <c r="D361" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>8</v>
+      </c>
+      <c r="D362" t="s">
+        <v>15</v>
+      </c>
+      <c r="E362" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s">
+        <v>27</v>
+      </c>
+      <c r="E363" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>15</v>
+      </c>
+      <c r="D364" t="s">
+        <v>14</v>
+      </c>
+      <c r="E364" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365">
+        <v>14</v>
+      </c>
+      <c r="D365" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>18</v>
+      </c>
+      <c r="E366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367">
+        <v>12</v>
+      </c>
+      <c r="D367" t="s">
+        <v>26</v>
+      </c>
+      <c r="E367" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>10</v>
+      </c>
+      <c r="D368" t="s">
+        <v>10</v>
+      </c>
+      <c r="E368" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>16</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>22</v>
+      </c>
+      <c r="E370" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371">
+        <v>1</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+      <c r="C371">
+        <v>8</v>
+      </c>
+      <c r="D371" t="s">
+        <v>20</v>
+      </c>
+      <c r="E371" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372">
+        <v>1</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>8</v>
+      </c>
+      <c r="D372" t="s">
+        <v>24</v>
+      </c>
+      <c r="E372" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>13</v>
+      </c>
+      <c r="D373" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
